--- a/scripts/output/202001/全家/全家整体资产配置.xlsx
+++ b/scripts/output/202001/全家/全家整体资产配置.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="资产配置情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="000000" numFmtId="164"/>
-    <numFmt formatCode="0.0000" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -87,67 +87,67 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K130"/>
+  <dimension ref="A1:K129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,16 +448,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="30"/>
-    <col customWidth="1" max="2" min="2" width="9"/>
-    <col customWidth="1" max="3" min="3" width="9"/>
-    <col customWidth="1" max="4" min="4" width="9"/>
-    <col customWidth="1" max="5" min="5" width="9"/>
-    <col customWidth="1" max="6" min="6" width="9"/>
-    <col customWidth="1" max="7" min="7" width="9"/>
-    <col customWidth="1" max="8" min="8" width="11.25"/>
-    <col customWidth="1" max="9" min="9" width="11.25"/>
-    <col customWidth="1" max="11" min="11" width="13.5"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="7" max="7"/>
+    <col width="11.25" customWidth="1" min="8" max="8"/>
+    <col width="11.25" customWidth="1" min="9" max="9"/>
+    <col width="13.5" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -530,13 +530,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>127630.03</v>
+        <v>141470.9</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>127630.03</v>
+        <v>141470.9</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>6156.16</v>
+        <v>6273.85</v>
       </c>
       <c r="G2" s="6" t="inlineStr">
         <is>
@@ -574,7 +574,7 @@
         <v>999998</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.1374</v>
+        <v>1.1494</v>
       </c>
       <c r="D3" s="5" t="n">
         <v>100000</v>
@@ -583,7 +583,7 @@
         <v>100000</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>13742</v>
+        <v>14942</v>
       </c>
       <c r="G3" s="6" t="inlineStr">
         <is>
@@ -621,16 +621,16 @@
         <v>90010</v>
       </c>
       <c r="C4" s="9" t="n">
-        <v>1.6512</v>
+        <v>1.6538</v>
       </c>
       <c r="D4" s="10" t="n">
-        <v>2559.09</v>
+        <v>2684.17</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>4327.42</v>
+        <v>4632.88</v>
       </c>
       <c r="F4" s="10" t="n">
-        <v>101.85</v>
+        <v>193.8</v>
       </c>
       <c r="G4" s="11" t="inlineStr">
         <is>
@@ -668,16 +668,16 @@
         <v>519671</v>
       </c>
       <c r="C5" s="9" t="n">
-        <v>1.4296</v>
+        <v>1.4332</v>
       </c>
       <c r="D5" s="10" t="n">
-        <v>2845.5</v>
+        <v>2981.05</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>4265.4</v>
+        <v>4516.29</v>
       </c>
       <c r="F5" s="10" t="n">
-        <v>197.48</v>
+        <v>243.85</v>
       </c>
       <c r="G5" s="11" t="inlineStr">
         <is>
@@ -715,16 +715,16 @@
         <v>3318</v>
       </c>
       <c r="C6" s="9" t="n">
-        <v>0.9342</v>
+        <v>0.9363</v>
       </c>
       <c r="D6" s="10" t="n">
-        <v>3835.61</v>
+        <v>4027.38</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>3701.75</v>
+        <v>4028.59</v>
       </c>
       <c r="F6" s="10" t="n">
-        <v>118.52</v>
+        <v>257.75</v>
       </c>
       <c r="G6" s="11" t="inlineStr">
         <is>
@@ -768,10 +768,10 @@
         <v>2260.14</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>3453.72</v>
+        <v>3506.83</v>
       </c>
       <c r="F7" s="10" t="n">
-        <v>406.83</v>
+        <v>459.94</v>
       </c>
       <c r="G7" s="11" t="inlineStr">
         <is>
@@ -815,10 +815,10 @@
         <v>1363.37</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>2719.11</v>
+        <v>2816.31</v>
       </c>
       <c r="F8" s="10" t="n">
-        <v>266.81</v>
+        <v>364.02</v>
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         <v>1134.65</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>2640.78</v>
+        <v>2728.83</v>
       </c>
       <c r="F9" s="10" t="n">
-        <v>217.17</v>
+        <v>305.22</v>
       </c>
       <c r="G9" s="11" t="inlineStr">
         <is>
@@ -909,10 +909,10 @@
         <v>1067.42</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>1070.94</v>
+        <v>1125.06</v>
       </c>
       <c r="F10" s="10" t="n">
-        <v>47.39</v>
+        <v>101.51</v>
       </c>
       <c r="G10" s="11" t="inlineStr">
         <is>
@@ -956,10 +956,10 @@
         <v>550.4</v>
       </c>
       <c r="E11" s="10" t="n">
-        <v>551.5599999999999</v>
+        <v>569.5</v>
       </c>
       <c r="F11" s="10" t="n">
-        <v>10.68</v>
+        <v>28.62</v>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
@@ -990,23 +990,23 @@
     <row r="12">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>天弘中证医药100A</t>
+          <t>天弘中证银行指数A</t>
         </is>
       </c>
       <c r="B12" s="8" t="n">
-        <v>1550</v>
+        <v>1594</v>
       </c>
       <c r="C12" s="9" t="n">
-        <v>0.6708</v>
+        <v>1.2523</v>
       </c>
       <c r="D12" s="10" t="n">
-        <v>531.87</v>
+        <v>396.18</v>
       </c>
       <c r="E12" s="10" t="n">
-        <v>420.55</v>
+        <v>501.64</v>
       </c>
       <c r="F12" s="10" t="n">
-        <v>63.77</v>
+        <v>5.51</v>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
@@ -1020,12 +1020,12 @@
       </c>
       <c r="I12" s="11" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>中证银行</t>
         </is>
       </c>
       <c r="J12" s="11" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>146</t>
         </is>
       </c>
       <c r="K12" s="11" t="inlineStr">
@@ -1037,23 +1037,23 @@
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>天弘中证银行指数A</t>
+          <t>天弘中证医药100A</t>
         </is>
       </c>
       <c r="B13" s="8" t="n">
-        <v>1594</v>
+        <v>1550</v>
       </c>
       <c r="C13" s="9" t="n">
-        <v>1.2422</v>
+        <v>0.6708</v>
       </c>
       <c r="D13" s="10" t="n">
-        <v>244.71</v>
+        <v>531.87</v>
       </c>
       <c r="E13" s="10" t="n">
-        <v>307.85</v>
+        <v>437.68</v>
       </c>
       <c r="F13" s="10" t="n">
-        <v>3.87</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="G13" s="11" t="inlineStr">
         <is>
@@ -1067,12 +1067,12 @@
       </c>
       <c r="I13" s="11" t="inlineStr">
         <is>
-          <t>中证银行</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J13" s="11" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K13" s="11" t="inlineStr">
@@ -1097,10 +1097,10 @@
         <v>247.91</v>
       </c>
       <c r="E14" s="10" t="n">
-        <v>342.61</v>
+        <v>346.08</v>
       </c>
       <c r="F14" s="10" t="n">
-        <v>29.35</v>
+        <v>32.82</v>
       </c>
       <c r="G14" s="11" t="inlineStr">
         <is>
@@ -1144,10 +1144,10 @@
         <v>64.5</v>
       </c>
       <c r="E15" s="10" t="n">
-        <v>91.31999999999999</v>
+        <v>92.25</v>
       </c>
       <c r="F15" s="10" t="n">
-        <v>-1.39</v>
+        <v>-0.46</v>
       </c>
       <c r="G15" s="11" t="inlineStr">
         <is>
@@ -1332,10 +1332,10 @@
         <v>16731.88</v>
       </c>
       <c r="E19" s="20" t="n">
-        <v>9858.42</v>
+        <v>10552.8</v>
       </c>
       <c r="F19" s="20" t="n">
-        <v>-2141.68</v>
+        <v>-1447.31</v>
       </c>
       <c r="G19" s="21" t="inlineStr">
         <is>
@@ -1379,10 +1379,10 @@
         <v>2700</v>
       </c>
       <c r="E20" s="25" t="n">
-        <v>8253.9</v>
+        <v>8324.1</v>
       </c>
       <c r="F20" s="25" t="n">
-        <v>1944</v>
+        <v>2014.2</v>
       </c>
       <c r="G20" s="26" t="inlineStr">
         <is>
@@ -1426,10 +1426,10 @@
         <v>9100</v>
       </c>
       <c r="E21" s="25" t="n">
-        <v>37249.94</v>
+        <v>38215.45</v>
       </c>
       <c r="F21" s="25" t="n">
-        <v>5882.24</v>
+        <v>6847.75</v>
       </c>
       <c r="G21" s="26" t="inlineStr">
         <is>
@@ -1473,10 +1473,10 @@
         <v>38800</v>
       </c>
       <c r="E22" s="25" t="n">
-        <v>221458.76</v>
+        <v>233719.56</v>
       </c>
       <c r="F22" s="25" t="n">
-        <v>4139.96</v>
+        <v>16400.76</v>
       </c>
       <c r="G22" s="26" t="inlineStr">
         <is>
@@ -1520,10 +1520,10 @@
         <v>33800</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>26617.5</v>
+        <v>28598.18</v>
       </c>
       <c r="F23" s="25" t="n">
-        <v>-3025.1</v>
+        <v>-1044.42</v>
       </c>
       <c r="G23" s="26" t="inlineStr">
         <is>
@@ -1567,10 +1567,10 @@
         <v>32700</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>34027.62</v>
+        <v>34367.7</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>8423.52</v>
+        <v>8763.6</v>
       </c>
       <c r="G24" s="26" t="inlineStr">
         <is>
@@ -1614,10 +1614,10 @@
         <v>34100</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>28473.5</v>
+        <v>31498.17</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>-1159.4</v>
+        <v>1865.27</v>
       </c>
       <c r="G25" s="26" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
         <v>4500</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>15146.1</v>
+        <v>15233.85</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>2294.1</v>
+        <v>2381.85</v>
       </c>
       <c r="G26" s="26" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>9200</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>15919.68</v>
+        <v>17123.96</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>3048.88</v>
+        <v>4253.16</v>
       </c>
       <c r="G27" s="26" t="inlineStr">
         <is>
@@ -1755,10 +1755,10 @@
         <v>14400</v>
       </c>
       <c r="E28" s="25" t="n">
-        <v>19895.04</v>
+        <v>20659.68</v>
       </c>
       <c r="F28" s="25" t="n">
-        <v>1592.64</v>
+        <v>2357.28</v>
       </c>
       <c r="G28" s="26" t="inlineStr">
         <is>
@@ -1802,10 +1802,10 @@
         <v>4157.52</v>
       </c>
       <c r="E29" s="30" t="n">
-        <v>8568.23</v>
+        <v>9027.219999999999</v>
       </c>
       <c r="F29" s="30" t="n">
-        <v>564.1799999999999</v>
+        <v>1023.17</v>
       </c>
       <c r="G29" s="31" t="inlineStr">
         <is>
@@ -1849,10 +1849,10 @@
         <v>9722</v>
       </c>
       <c r="E30" s="30" t="n">
-        <v>5728.2</v>
+        <v>6131.67</v>
       </c>
       <c r="F30" s="30" t="n">
-        <v>391.8</v>
+        <v>795.26</v>
       </c>
       <c r="G30" s="31" t="inlineStr">
         <is>
@@ -1896,10 +1896,10 @@
         <v>4943.96</v>
       </c>
       <c r="E31" s="30" t="n">
-        <v>4960.28</v>
+        <v>5210.93</v>
       </c>
       <c r="F31" s="30" t="n">
-        <v>291.2</v>
+        <v>541.86</v>
       </c>
       <c r="G31" s="31" t="inlineStr">
         <is>
@@ -1943,10 +1943,10 @@
         <v>7379.54</v>
       </c>
       <c r="E32" s="30" t="n">
-        <v>4309.65</v>
+        <v>4538.42</v>
       </c>
       <c r="F32" s="30" t="n">
-        <v>307.73</v>
+        <v>536.49</v>
       </c>
       <c r="G32" s="31" t="inlineStr">
         <is>
@@ -1990,10 +1990,10 @@
         <v>3665.01</v>
       </c>
       <c r="E33" s="30" t="n">
-        <v>4251.41</v>
+        <v>4335.71</v>
       </c>
       <c r="F33" s="30" t="n">
-        <v>249.59</v>
+        <v>333.88</v>
       </c>
       <c r="G33" s="31" t="inlineStr">
         <is>
@@ -2037,10 +2037,10 @@
         <v>4550.55</v>
       </c>
       <c r="E34" s="30" t="n">
-        <v>3796.07</v>
+        <v>4164.66</v>
       </c>
       <c r="F34" s="30" t="n">
-        <v>460.97</v>
+        <v>829.5700000000001</v>
       </c>
       <c r="G34" s="31" t="inlineStr">
         <is>
@@ -2084,10 +2084,10 @@
         <v>400.63</v>
       </c>
       <c r="E35" s="30" t="n">
-        <v>742.89</v>
+        <v>795.73</v>
       </c>
       <c r="F35" s="30" t="n">
-        <v>75.88</v>
+        <v>128.72</v>
       </c>
       <c r="G35" s="31" t="inlineStr">
         <is>
@@ -2131,10 +2131,10 @@
         <v>736.3</v>
       </c>
       <c r="E36" s="30" t="n">
-        <v>739.76</v>
+        <v>791.38</v>
       </c>
       <c r="F36" s="30" t="n">
-        <v>72.75</v>
+        <v>124.36</v>
       </c>
       <c r="G36" s="31" t="inlineStr">
         <is>
@@ -2178,10 +2178,10 @@
         <v>809.28</v>
       </c>
       <c r="E37" s="30" t="n">
-        <v>696.0599999999999</v>
+        <v>721.15</v>
       </c>
       <c r="F37" s="30" t="n">
-        <v>29.05</v>
+        <v>54.14</v>
       </c>
       <c r="G37" s="31" t="inlineStr">
         <is>
@@ -2225,10 +2225,10 @@
         <v>473.85</v>
       </c>
       <c r="E38" s="30" t="n">
-        <v>526.16</v>
+        <v>531.23</v>
       </c>
       <c r="F38" s="30" t="n">
-        <v>59.28</v>
+        <v>64.34999999999999</v>
       </c>
       <c r="G38" s="31" t="inlineStr">
         <is>
@@ -2272,10 +2272,10 @@
         <v>5299.96</v>
       </c>
       <c r="E39" s="30" t="n">
-        <v>2172.98</v>
+        <v>2109.38</v>
       </c>
       <c r="F39" s="30" t="n">
-        <v>172.25</v>
+        <v>108.65</v>
       </c>
       <c r="G39" s="31" t="inlineStr">
         <is>
@@ -2319,10 +2319,10 @@
         <v>576.8</v>
       </c>
       <c r="E40" s="30" t="n">
-        <v>785.02</v>
+        <v>841.55</v>
       </c>
       <c r="F40" s="30" t="n">
-        <v>118.01</v>
+        <v>174.54</v>
       </c>
       <c r="G40" s="31" t="inlineStr">
         <is>
@@ -2366,10 +2366,10 @@
         <v>459.67</v>
       </c>
       <c r="E41" s="30" t="n">
-        <v>721.59</v>
+        <v>736.8099999999999</v>
       </c>
       <c r="F41" s="30" t="n">
-        <v>54.61</v>
+        <v>69.81999999999999</v>
       </c>
       <c r="G41" s="31" t="inlineStr">
         <is>
@@ -2413,10 +2413,10 @@
         <v>611.75</v>
       </c>
       <c r="E42" s="30" t="n">
-        <v>742.05</v>
+        <v>744.5</v>
       </c>
       <c r="F42" s="30" t="n">
-        <v>75.06</v>
+        <v>77.51000000000001</v>
       </c>
       <c r="G42" s="31" t="inlineStr">
         <is>
@@ -2460,10 +2460,10 @@
         <v>1046.73</v>
       </c>
       <c r="E43" s="30" t="n">
-        <v>2157.21</v>
+        <v>2272.76</v>
       </c>
       <c r="F43" s="30" t="n">
-        <v>157.22</v>
+        <v>272.78</v>
       </c>
       <c r="G43" s="31" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>1825.9</v>
       </c>
       <c r="E44" s="30" t="n">
-        <v>2118.04</v>
+        <v>2160.04</v>
       </c>
       <c r="F44" s="30" t="n">
-        <v>117.95</v>
+        <v>159.95</v>
       </c>
       <c r="G44" s="31" t="inlineStr">
         <is>
@@ -2554,10 +2554,10 @@
         <v>1059.17</v>
       </c>
       <c r="E45" s="30" t="n">
-        <v>1106.83</v>
+        <v>1115.31</v>
       </c>
       <c r="F45" s="30" t="n">
-        <v>106.87</v>
+        <v>115.34</v>
       </c>
       <c r="G45" s="31" t="inlineStr">
         <is>
@@ -2601,10 +2601,10 @@
         <v>1812.7</v>
       </c>
       <c r="E46" s="30" t="n">
-        <v>1058.62</v>
+        <v>1114.81</v>
       </c>
       <c r="F46" s="30" t="n">
-        <v>58.55</v>
+        <v>114.74</v>
       </c>
       <c r="G46" s="31" t="inlineStr">
         <is>
@@ -2648,10 +2648,10 @@
         <v>1227.03</v>
       </c>
       <c r="E47" s="30" t="n">
-        <v>1023.59</v>
+        <v>1122.98</v>
       </c>
       <c r="F47" s="30" t="n">
-        <v>23.56</v>
+        <v>122.95</v>
       </c>
       <c r="G47" s="31" t="inlineStr">
         <is>
@@ -2695,10 +2695,10 @@
         <v>899.8200000000001</v>
       </c>
       <c r="E48" s="30" t="n">
-        <v>1224.66</v>
+        <v>1312.84</v>
       </c>
       <c r="F48" s="30" t="n">
-        <v>224.69</v>
+        <v>312.87</v>
       </c>
       <c r="G48" s="31" t="inlineStr">
         <is>
@@ -2742,10 +2742,10 @@
         <v>689.02</v>
       </c>
       <c r="E49" s="30" t="n">
-        <v>1081.62</v>
+        <v>1104.43</v>
       </c>
       <c r="F49" s="30" t="n">
-        <v>81.65000000000001</v>
+        <v>104.46</v>
       </c>
       <c r="G49" s="31" t="inlineStr">
         <is>
@@ -2789,10 +2789,10 @@
         <v>1834.47</v>
       </c>
       <c r="E50" s="30" t="n">
-        <v>2286.85</v>
+        <v>2300.79</v>
       </c>
       <c r="F50" s="30" t="n">
-        <v>286.91</v>
+        <v>300.85</v>
       </c>
       <c r="G50" s="31" t="inlineStr">
         <is>
@@ -2836,10 +2836,10 @@
         <v>4757.9</v>
       </c>
       <c r="E51" s="30" t="n">
-        <v>1950.74</v>
+        <v>1893.64</v>
       </c>
       <c r="F51" s="30" t="n">
-        <v>-49.48</v>
+        <v>-106.58</v>
       </c>
       <c r="G51" s="31" t="inlineStr">
         <is>
@@ -2883,10 +2883,10 @@
         <v>953.96</v>
       </c>
       <c r="E52" s="30" t="n">
-        <v>1157.15</v>
+        <v>1160.97</v>
       </c>
       <c r="F52" s="30" t="n">
-        <v>157.12</v>
+        <v>160.93</v>
       </c>
       <c r="G52" s="31" t="inlineStr">
         <is>
@@ -2930,10 +2930,10 @@
         <v>595.47</v>
       </c>
       <c r="E53" s="30" t="n">
-        <v>1048.03</v>
+        <v>1064.1</v>
       </c>
       <c r="F53" s="30" t="n">
-        <v>48.05</v>
+        <v>64.13</v>
       </c>
       <c r="G53" s="31" t="inlineStr">
         <is>
@@ -2977,10 +2977,10 @@
         <v>65064.33</v>
       </c>
       <c r="E54" s="35" t="n">
-        <v>75474.62</v>
+        <v>76971.10000000001</v>
       </c>
       <c r="F54" s="35" t="n">
-        <v>9154.549999999999</v>
+        <v>10651.03</v>
       </c>
       <c r="G54" s="36" t="inlineStr">
         <is>
@@ -3024,10 +3024,10 @@
         <v>63490</v>
       </c>
       <c r="E55" s="35" t="n">
-        <v>63699.52</v>
+        <v>66918.46000000001</v>
       </c>
       <c r="F55" s="35" t="n">
-        <v>5498.23</v>
+        <v>8717.18</v>
       </c>
       <c r="G55" s="36" t="inlineStr">
         <is>
@@ -3071,10 +3071,10 @@
         <v>32370.29</v>
       </c>
       <c r="E56" s="35" t="n">
-        <v>39310.48</v>
+        <v>40139.16</v>
       </c>
       <c r="F56" s="35" t="n">
-        <v>7309.21</v>
+        <v>8137.89</v>
       </c>
       <c r="G56" s="36" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         <v>20086.63</v>
       </c>
       <c r="E57" s="35" t="n">
-        <v>35352.47</v>
+        <v>35894.81</v>
       </c>
       <c r="F57" s="35" t="n">
-        <v>3352.46</v>
+        <v>3894.8</v>
       </c>
       <c r="G57" s="36" t="inlineStr">
         <is>
@@ -3165,10 +3165,10 @@
         <v>41014.88</v>
       </c>
       <c r="E58" s="35" t="n">
-        <v>35276.9</v>
+        <v>36548.36</v>
       </c>
       <c r="F58" s="35" t="n">
-        <v>4716.71</v>
+        <v>5988.17</v>
       </c>
       <c r="G58" s="36" t="inlineStr">
         <is>
@@ -3212,10 +3212,10 @@
         <v>20716.63</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>25129.27</v>
+        <v>25212.14</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2527.43</v>
+        <v>2610.3</v>
       </c>
       <c r="G59" s="36" t="inlineStr">
         <is>
@@ -3259,10 +3259,10 @@
         <v>14624.61</v>
       </c>
       <c r="E60" s="35" t="n">
-        <v>24861.84</v>
+        <v>25490.7</v>
       </c>
       <c r="F60" s="35" t="n">
-        <v>5661.19</v>
+        <v>6290.04</v>
       </c>
       <c r="G60" s="36" t="inlineStr">
         <is>
@@ -3306,10 +3306,10 @@
         <v>21163.93</v>
       </c>
       <c r="E61" s="35" t="n">
-        <v>24427.41</v>
+        <v>24605.19</v>
       </c>
       <c r="F61" s="35" t="n">
-        <v>5225.37</v>
+        <v>5403.15</v>
       </c>
       <c r="G61" s="36" t="inlineStr">
         <is>
@@ -3353,10 +3353,10 @@
         <v>16778.47</v>
       </c>
       <c r="E62" s="35" t="n">
-        <v>22835.5</v>
+        <v>24479.79</v>
       </c>
       <c r="F62" s="35" t="n">
-        <v>3634.22</v>
+        <v>5278.51</v>
       </c>
       <c r="G62" s="36" t="inlineStr">
         <is>
@@ -3400,10 +3400,10 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E63" s="35" t="n">
-        <v>16238.8</v>
+        <v>17134.6</v>
       </c>
       <c r="F63" s="35" t="n">
-        <v>3438.36</v>
+        <v>4334.16</v>
       </c>
       <c r="G63" s="36" t="inlineStr">
         <is>
@@ -3447,10 +3447,10 @@
         <v>37267.45</v>
       </c>
       <c r="E64" s="35" t="n">
-        <v>15279.65</v>
+        <v>14832.45</v>
       </c>
       <c r="F64" s="35" t="n">
-        <v>-3920.54</v>
+        <v>-4367.75</v>
       </c>
       <c r="G64" s="36" t="inlineStr">
         <is>
@@ -3494,10 +3494,10 @@
         <v>6798.52</v>
       </c>
       <c r="E65" s="35" t="n">
-        <v>10672.32</v>
+        <v>10897.35</v>
       </c>
       <c r="F65" s="35" t="n">
-        <v>772.3099999999999</v>
+        <v>997.34</v>
       </c>
       <c r="G65" s="36" t="inlineStr">
         <is>
@@ -3541,10 +3541,10 @@
         <v>13403.92</v>
       </c>
       <c r="E66" s="35" t="n">
-        <v>7897.59</v>
+        <v>8453.85</v>
       </c>
       <c r="F66" s="35" t="n">
-        <v>1497.22</v>
+        <v>2053.48</v>
       </c>
       <c r="G66" s="36" t="inlineStr">
         <is>
@@ -3588,10 +3588,10 @@
         <v>5328.62</v>
       </c>
       <c r="E67" s="35" t="n">
-        <v>7622.06</v>
+        <v>7797.9</v>
       </c>
       <c r="F67" s="35" t="n">
-        <v>1221.85</v>
+        <v>1397.7</v>
       </c>
       <c r="G67" s="36" t="inlineStr">
         <is>
@@ -3635,10 +3635,10 @@
         <v>5609.79</v>
       </c>
       <c r="E68" s="35" t="n">
-        <v>7601.27</v>
+        <v>7651.75</v>
       </c>
       <c r="F68" s="35" t="n">
-        <v>2455.97</v>
+        <v>2506.45</v>
       </c>
       <c r="G68" s="36" t="inlineStr">
         <is>
@@ -3679,13 +3679,13 @@
         <v>0.9</v>
       </c>
       <c r="D69" s="35" t="n">
-        <v>7778.64</v>
+        <v>3889.32</v>
       </c>
       <c r="E69" s="35" t="n">
-        <v>7140.01</v>
+        <v>3753.58</v>
       </c>
       <c r="F69" s="35" t="n">
-        <v>139.24</v>
+        <v>253.19</v>
       </c>
       <c r="G69" s="36" t="inlineStr">
         <is>
@@ -3729,10 +3729,10 @@
         <v>3299.64</v>
       </c>
       <c r="E70" s="35" t="n">
-        <v>6800.23</v>
+        <v>7164.51</v>
       </c>
       <c r="F70" s="35" t="n">
-        <v>399.92</v>
+        <v>764.2</v>
       </c>
       <c r="G70" s="36" t="inlineStr">
         <is>
@@ -3776,10 +3776,10 @@
         <v>7852.99</v>
       </c>
       <c r="E71" s="35" t="n">
-        <v>6550.96</v>
+        <v>7187.06</v>
       </c>
       <c r="F71" s="35" t="n">
-        <v>150.78</v>
+        <v>786.87</v>
       </c>
       <c r="G71" s="36" t="inlineStr">
         <is>
@@ -3808,119 +3808,119 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="32" t="inlineStr">
-        <is>
-          <t>创金合信中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="B72" s="33" t="n">
-        <v>3647</v>
-      </c>
-      <c r="C72" s="34" t="n">
-        <v>0.9776</v>
-      </c>
-      <c r="D72" s="35" t="n">
-        <v>3580.2</v>
-      </c>
-      <c r="E72" s="35" t="n">
-        <v>3614.21</v>
-      </c>
-      <c r="F72" s="35" t="n">
-        <v>114.21</v>
-      </c>
-      <c r="G72" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H72" s="36" t="inlineStr">
-        <is>
-          <t>中小盘股</t>
-        </is>
-      </c>
-      <c r="I72" s="36" t="inlineStr">
-        <is>
-          <t>中证1000</t>
-        </is>
-      </c>
-      <c r="J72" s="36" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="K72" s="36" t="inlineStr">
-        <is>
-          <t>天天基金</t>
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>货币基金综合</t>
+        </is>
+      </c>
+      <c r="B72" s="3" t="n">
+        <v>999999</v>
+      </c>
+      <c r="C72" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" s="5" t="n">
+        <v>10216.69</v>
+      </c>
+      <c r="E72" s="5" t="n">
+        <v>10216.69</v>
+      </c>
+      <c r="F72" s="5" t="n">
+        <v>16.69</v>
+      </c>
+      <c r="G72" s="6" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="H72" s="6" t="inlineStr">
+        <is>
+          <t>低风险理财</t>
+        </is>
+      </c>
+      <c r="I72" s="6" t="inlineStr">
+        <is>
+          <t>货币基金</t>
+        </is>
+      </c>
+      <c r="J72" s="6" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="K72" s="6" t="inlineStr">
+        <is>
+          <t>现金账户父母</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="inlineStr">
-        <is>
-          <t>货币基金综合</t>
-        </is>
-      </c>
-      <c r="B73" s="3" t="n">
-        <v>999999</v>
-      </c>
-      <c r="C73" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D73" s="5" t="n">
-        <v>10216.69</v>
-      </c>
-      <c r="E73" s="5" t="n">
-        <v>10216.69</v>
-      </c>
-      <c r="F73" s="5" t="n">
-        <v>16.69</v>
-      </c>
-      <c r="G73" s="6" t="inlineStr">
-        <is>
-          <t>现金</t>
-        </is>
-      </c>
-      <c r="H73" s="6" t="inlineStr">
-        <is>
-          <t>低风险理财</t>
-        </is>
-      </c>
-      <c r="I73" s="6" t="inlineStr">
-        <is>
-          <t>货币基金</t>
-        </is>
-      </c>
-      <c r="J73" s="6" t="inlineStr">
-        <is>
-          <t>999</t>
-        </is>
-      </c>
-      <c r="K73" s="6" t="inlineStr">
-        <is>
-          <t>现金账户父母</t>
+      <c r="A73" s="7" t="inlineStr">
+        <is>
+          <t>银河沪深300价值指数</t>
+        </is>
+      </c>
+      <c r="B73" s="8" t="n">
+        <v>519671</v>
+      </c>
+      <c r="C73" s="9" t="n">
+        <v>1.4318</v>
+      </c>
+      <c r="D73" s="10" t="n">
+        <v>1128.52</v>
+      </c>
+      <c r="E73" s="10" t="n">
+        <v>1709.71</v>
+      </c>
+      <c r="F73" s="10" t="n">
+        <v>93.89</v>
+      </c>
+      <c r="G73" s="11" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H73" s="11" t="inlineStr">
+        <is>
+          <t>大盘股</t>
+        </is>
+      </c>
+      <c r="I73" s="11" t="inlineStr">
+        <is>
+          <t>300价值</t>
+        </is>
+      </c>
+      <c r="J73" s="11" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="K73" s="11" t="inlineStr">
+        <is>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="7" t="inlineStr">
         <is>
-          <t>银河沪深300价值指数</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B74" s="8" t="n">
-        <v>519671</v>
+        <v>90010</v>
       </c>
       <c r="C74" s="9" t="n">
-        <v>1.4279</v>
+        <v>1.6549</v>
       </c>
       <c r="D74" s="10" t="n">
-        <v>1074.3</v>
+        <v>965.5700000000001</v>
       </c>
       <c r="E74" s="10" t="n">
-        <v>1610.38</v>
+        <v>1666.57</v>
       </c>
       <c r="F74" s="10" t="n">
-        <v>76.38</v>
+        <v>68.65000000000001</v>
       </c>
       <c r="G74" s="11" t="inlineStr">
         <is>
@@ -3929,17 +3929,17 @@
       </c>
       <c r="H74" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I74" s="11" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J74" s="11" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K74" s="11" t="inlineStr">
@@ -3951,23 +3951,23 @@
     <row r="75">
       <c r="A75" s="7" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>景顺长城中证500低波动</t>
         </is>
       </c>
       <c r="B75" s="8" t="n">
-        <v>90010</v>
+        <v>3318</v>
       </c>
       <c r="C75" s="9" t="n">
-        <v>1.652</v>
+        <v>0.9358</v>
       </c>
       <c r="D75" s="10" t="n">
-        <v>915.53</v>
+        <v>1478.24</v>
       </c>
       <c r="E75" s="10" t="n">
-        <v>1548.16</v>
+        <v>1478.68</v>
       </c>
       <c r="F75" s="10" t="n">
-        <v>35.71</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="G75" s="11" t="inlineStr">
         <is>
@@ -3976,17 +3976,17 @@
       </c>
       <c r="H75" s="11" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I75" s="11" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>500低波动</t>
         </is>
       </c>
       <c r="J75" s="11" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>122</t>
         </is>
       </c>
       <c r="K75" s="11" t="inlineStr">
@@ -3998,42 +3998,42 @@
     <row r="76">
       <c r="A76" s="7" t="inlineStr">
         <is>
-          <t>景顺长城中证500低波动</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B76" s="8" t="n">
-        <v>3318</v>
+        <v>501021</v>
       </c>
       <c r="C76" s="9" t="n">
-        <v>0.9335</v>
+        <v>1.3485</v>
       </c>
       <c r="D76" s="10" t="n">
-        <v>1401.53</v>
+        <v>898.04</v>
       </c>
       <c r="E76" s="10" t="n">
-        <v>1352.62</v>
+        <v>1393.4</v>
       </c>
       <c r="F76" s="10" t="n">
-        <v>44.29</v>
+        <v>182.39</v>
       </c>
       <c r="G76" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H76" s="11" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I76" s="11" t="inlineStr">
         <is>
-          <t>500低波动</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="J76" s="11" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>213</t>
         </is>
       </c>
       <c r="K76" s="11" t="inlineStr">
@@ -4045,42 +4045,42 @@
     <row r="77">
       <c r="A77" s="7" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>嘉实深证基本面120联接</t>
         </is>
       </c>
       <c r="B77" s="8" t="n">
-        <v>501021</v>
+        <v>70023</v>
       </c>
       <c r="C77" s="9" t="n">
-        <v>1.3485</v>
+        <v>1.7966</v>
       </c>
       <c r="D77" s="10" t="n">
-        <v>898.04</v>
+        <v>492.58</v>
       </c>
       <c r="E77" s="10" t="n">
-        <v>1372.29</v>
+        <v>1017.52</v>
       </c>
       <c r="F77" s="10" t="n">
-        <v>161.29</v>
+        <v>132.55</v>
       </c>
       <c r="G77" s="11" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H77" s="11" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I77" s="11" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>基本面120</t>
         </is>
       </c>
       <c r="J77" s="11" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>116</t>
         </is>
       </c>
       <c r="K77" s="11" t="inlineStr">
@@ -4092,23 +4092,23 @@
     <row r="78">
       <c r="A78" s="7" t="inlineStr">
         <is>
-          <t>嘉实深证基本面120联接</t>
+          <t>建信深证基本面60ETF联接A</t>
         </is>
       </c>
       <c r="B78" s="8" t="n">
-        <v>70023</v>
+        <v>530015</v>
       </c>
       <c r="C78" s="9" t="n">
-        <v>1.7966</v>
+        <v>2.1277</v>
       </c>
       <c r="D78" s="10" t="n">
-        <v>492.58</v>
+        <v>421.99</v>
       </c>
       <c r="E78" s="10" t="n">
-        <v>982.4</v>
+        <v>1014.89</v>
       </c>
       <c r="F78" s="10" t="n">
-        <v>97.43000000000001</v>
+        <v>117.02</v>
       </c>
       <c r="G78" s="11" t="inlineStr">
         <is>
@@ -4122,12 +4122,12 @@
       </c>
       <c r="I78" s="11" t="inlineStr">
         <is>
-          <t>基本面120</t>
+          <t>基本面60</t>
         </is>
       </c>
       <c r="J78" s="11" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>115</t>
         </is>
       </c>
       <c r="K78" s="11" t="inlineStr">
@@ -4139,23 +4139,23 @@
     <row r="79">
       <c r="A79" s="7" t="inlineStr">
         <is>
-          <t>建信深证基本面60ETF联接A</t>
+          <t>广发中证养老</t>
         </is>
       </c>
       <c r="B79" s="8" t="n">
-        <v>530015</v>
+        <v>968</v>
       </c>
       <c r="C79" s="9" t="n">
-        <v>2.1277</v>
+        <v>0.9599</v>
       </c>
       <c r="D79" s="10" t="n">
-        <v>421.99</v>
+        <v>390.82</v>
       </c>
       <c r="E79" s="10" t="n">
-        <v>982.14</v>
+        <v>411.92</v>
       </c>
       <c r="F79" s="10" t="n">
-        <v>84.27</v>
+        <v>36.78</v>
       </c>
       <c r="G79" s="11" t="inlineStr">
         <is>
@@ -4164,17 +4164,17 @@
       </c>
       <c r="H79" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I79" s="11" t="inlineStr">
         <is>
-          <t>基本面60</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J79" s="11" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K79" s="11" t="inlineStr">
@@ -4186,23 +4186,23 @@
     <row r="80">
       <c r="A80" s="7" t="inlineStr">
         <is>
-          <t>广发中证养老</t>
+          <t>华宝红利基金</t>
         </is>
       </c>
       <c r="B80" s="8" t="n">
-        <v>968</v>
+        <v>501029</v>
       </c>
       <c r="C80" s="9" t="n">
-        <v>0.9599</v>
+        <v>0.9829</v>
       </c>
       <c r="D80" s="10" t="n">
-        <v>390.82</v>
+        <v>214.89</v>
       </c>
       <c r="E80" s="10" t="n">
-        <v>392.11</v>
+        <v>222.35</v>
       </c>
       <c r="F80" s="10" t="n">
-        <v>16.96</v>
+        <v>11.13</v>
       </c>
       <c r="G80" s="11" t="inlineStr">
         <is>
@@ -4211,17 +4211,17 @@
       </c>
       <c r="H80" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I80" s="11" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>标普红利</t>
         </is>
       </c>
       <c r="J80" s="11" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>132</t>
         </is>
       </c>
       <c r="K80" s="11" t="inlineStr">
@@ -4233,23 +4233,23 @@
     <row r="81">
       <c r="A81" s="7" t="inlineStr">
         <is>
-          <t>华宝红利基金</t>
+          <t>天弘中证医药100A</t>
         </is>
       </c>
       <c r="B81" s="8" t="n">
-        <v>501029</v>
+        <v>1550</v>
       </c>
       <c r="C81" s="9" t="n">
-        <v>0.9829</v>
+        <v>0.6708</v>
       </c>
       <c r="D81" s="10" t="n">
-        <v>214.89</v>
+        <v>212.74</v>
       </c>
       <c r="E81" s="10" t="n">
-        <v>215.34</v>
+        <v>175.06</v>
       </c>
       <c r="F81" s="10" t="n">
-        <v>4.13</v>
+        <v>32.36</v>
       </c>
       <c r="G81" s="11" t="inlineStr">
         <is>
@@ -4258,17 +4258,17 @@
       </c>
       <c r="H81" s="11" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I81" s="11" t="inlineStr">
         <is>
-          <t>标普红利</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J81" s="11" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K81" s="11" t="inlineStr">
@@ -4280,23 +4280,23 @@
     <row r="82">
       <c r="A82" s="7" t="inlineStr">
         <is>
-          <t>天弘中证医药100A</t>
+          <t>天弘中证银行指数A</t>
         </is>
       </c>
       <c r="B82" s="8" t="n">
-        <v>1550</v>
+        <v>1594</v>
       </c>
       <c r="C82" s="9" t="n">
-        <v>0.6708</v>
+        <v>1.2568</v>
       </c>
       <c r="D82" s="10" t="n">
-        <v>212.74</v>
+        <v>109.5</v>
       </c>
       <c r="E82" s="10" t="n">
-        <v>168.21</v>
+        <v>138.65</v>
       </c>
       <c r="F82" s="10" t="n">
-        <v>25.51</v>
+        <v>1.03</v>
       </c>
       <c r="G82" s="11" t="inlineStr">
         <is>
@@ -4310,12 +4310,12 @@
       </c>
       <c r="I82" s="11" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>中证银行</t>
         </is>
       </c>
       <c r="J82" s="11" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>146</t>
         </is>
       </c>
       <c r="K82" s="11" t="inlineStr">
@@ -4327,23 +4327,23 @@
     <row r="83">
       <c r="A83" s="7" t="inlineStr">
         <is>
-          <t>天弘中证银行指数A</t>
+          <t>华夏上证50AH优选指数</t>
         </is>
       </c>
       <c r="B83" s="8" t="n">
-        <v>1594</v>
+        <v>501050</v>
       </c>
       <c r="C83" s="9" t="n">
-        <v>1.2424</v>
+        <v>1.2891</v>
       </c>
       <c r="D83" s="10" t="n">
-        <v>48.92</v>
+        <v>62.09</v>
       </c>
       <c r="E83" s="10" t="n">
-        <v>61.54</v>
+        <v>86.68000000000001</v>
       </c>
       <c r="F83" s="10" t="n">
-        <v>0.76</v>
+        <v>6.64</v>
       </c>
       <c r="G83" s="11" t="inlineStr">
         <is>
@@ -4352,17 +4352,17 @@
       </c>
       <c r="H83" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I83" s="11" t="inlineStr">
         <is>
-          <t>中证银行</t>
+          <t>50AH</t>
         </is>
       </c>
       <c r="J83" s="11" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>112</t>
         </is>
       </c>
       <c r="K83" s="11" t="inlineStr">
@@ -4374,23 +4374,23 @@
     <row r="84">
       <c r="A84" s="7" t="inlineStr">
         <is>
-          <t>华夏上证50AH优选指数</t>
+          <t>申万菱信沪深300价值指数</t>
         </is>
       </c>
       <c r="B84" s="8" t="n">
-        <v>501050</v>
+        <v>310398</v>
       </c>
       <c r="C84" s="9" t="n">
-        <v>1.2891</v>
+        <v>1.4372</v>
       </c>
       <c r="D84" s="10" t="n">
-        <v>62.09</v>
+        <v>25.8</v>
       </c>
       <c r="E84" s="10" t="n">
-        <v>85.81</v>
+        <v>36.9</v>
       </c>
       <c r="F84" s="10" t="n">
-        <v>5.77</v>
+        <v>-0.18</v>
       </c>
       <c r="G84" s="11" t="inlineStr">
         <is>
@@ -4404,12 +4404,12 @@
       </c>
       <c r="I84" s="11" t="inlineStr">
         <is>
-          <t>50AH</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="J84" s="11" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K84" s="11" t="inlineStr">
@@ -4421,42 +4421,42 @@
     <row r="85">
       <c r="A85" s="7" t="inlineStr">
         <is>
-          <t>申万菱信沪深300价值指数</t>
+          <t>大成景安短融债券E</t>
         </is>
       </c>
       <c r="B85" s="8" t="n">
-        <v>310398</v>
+        <v>2086</v>
       </c>
       <c r="C85" s="9" t="n">
-        <v>1.4372</v>
+        <v>1.2258</v>
       </c>
       <c r="D85" s="10" t="n">
-        <v>25.8</v>
+        <v>0</v>
       </c>
       <c r="E85" s="10" t="n">
-        <v>36.53</v>
+        <v>0</v>
       </c>
       <c r="F85" s="10" t="n">
-        <v>-0.55</v>
+        <v>0</v>
       </c>
       <c r="G85" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>现金</t>
         </is>
       </c>
       <c r="H85" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>低风险理财</t>
         </is>
       </c>
       <c r="I85" s="11" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>货币基金</t>
         </is>
       </c>
       <c r="J85" s="11" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>999</t>
         </is>
       </c>
       <c r="K85" s="11" t="inlineStr">
@@ -4468,70 +4468,70 @@
     <row r="86">
       <c r="A86" s="7" t="inlineStr">
         <is>
-          <t>大成景安短融债券E</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B86" s="8" t="n">
-        <v>2086</v>
+        <v>90010</v>
       </c>
       <c r="C86" s="9" t="n">
-        <v>1.2258</v>
+        <v>1.6586</v>
       </c>
       <c r="D86" s="10" t="n">
-        <v>0</v>
+        <v>1080.54</v>
       </c>
       <c r="E86" s="10" t="n">
-        <v>0</v>
+        <v>1865.01</v>
       </c>
       <c r="F86" s="10" t="n">
-        <v>0</v>
+        <v>72.83</v>
       </c>
       <c r="G86" s="11" t="inlineStr">
         <is>
-          <t>现金</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H86" s="11" t="inlineStr">
         <is>
-          <t>低风险理财</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I86" s="11" t="inlineStr">
         <is>
-          <t>货币基金</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J86" s="11" t="inlineStr">
         <is>
-          <t>999</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K86" s="11" t="inlineStr">
         <is>
-          <t>螺丝钉父</t>
+          <t>螺丝钉母</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="7" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>银河沪深300价值指数</t>
         </is>
       </c>
       <c r="B87" s="8" t="n">
-        <v>90010</v>
+        <v>519671</v>
       </c>
       <c r="C87" s="9" t="n">
-        <v>1.6562</v>
+        <v>1.4318</v>
       </c>
       <c r="D87" s="10" t="n">
-        <v>1029.18</v>
+        <v>1171.1</v>
       </c>
       <c r="E87" s="10" t="n">
-        <v>1740.34</v>
+        <v>1774.22</v>
       </c>
       <c r="F87" s="10" t="n">
-        <v>35.82</v>
+        <v>97.44</v>
       </c>
       <c r="G87" s="11" t="inlineStr">
         <is>
@@ -4540,17 +4540,17 @@
       </c>
       <c r="H87" s="11" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I87" s="11" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="J87" s="11" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K87" s="11" t="inlineStr">
@@ -4562,23 +4562,23 @@
     <row r="88">
       <c r="A88" s="7" t="inlineStr">
         <is>
-          <t>银河沪深300价值指数</t>
+          <t>景顺长城中证500低波动</t>
         </is>
       </c>
       <c r="B88" s="8" t="n">
-        <v>519671</v>
+        <v>3318</v>
       </c>
       <c r="C88" s="9" t="n">
-        <v>1.428</v>
+        <v>0.9368</v>
       </c>
       <c r="D88" s="10" t="n">
-        <v>1115.64</v>
+        <v>1577.92</v>
       </c>
       <c r="E88" s="10" t="n">
-        <v>1672.34</v>
+        <v>1578.39</v>
       </c>
       <c r="F88" s="10" t="n">
-        <v>79.20999999999999</v>
+        <v>100.2</v>
       </c>
       <c r="G88" s="11" t="inlineStr">
         <is>
@@ -4587,17 +4587,17 @@
       </c>
       <c r="H88" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I88" s="11" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>500低波动</t>
         </is>
       </c>
       <c r="J88" s="11" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>122</t>
         </is>
       </c>
       <c r="K88" s="11" t="inlineStr">
@@ -4609,42 +4609,42 @@
     <row r="89">
       <c r="A89" s="7" t="inlineStr">
         <is>
-          <t>景顺长城中证500低波动</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B89" s="8" t="n">
-        <v>3318</v>
+        <v>501021</v>
       </c>
       <c r="C89" s="9" t="n">
-        <v>0.9345</v>
+        <v>1.3514</v>
       </c>
       <c r="D89" s="10" t="n">
-        <v>1498.3</v>
+        <v>915.97</v>
       </c>
       <c r="E89" s="10" t="n">
-        <v>1446.01</v>
+        <v>1421.22</v>
       </c>
       <c r="F89" s="10" t="n">
-        <v>45.85</v>
+        <v>183.38</v>
       </c>
       <c r="G89" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H89" s="11" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I89" s="11" t="inlineStr">
         <is>
-          <t>500低波动</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="J89" s="11" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>213</t>
         </is>
       </c>
       <c r="K89" s="11" t="inlineStr">
@@ -4656,42 +4656,42 @@
     <row r="90">
       <c r="A90" s="7" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>嘉实深证基本面120联接</t>
         </is>
       </c>
       <c r="B90" s="8" t="n">
-        <v>501021</v>
+        <v>70023</v>
       </c>
       <c r="C90" s="9" t="n">
-        <v>1.3514</v>
+        <v>1.7992</v>
       </c>
       <c r="D90" s="10" t="n">
-        <v>915.97</v>
+        <v>528.99</v>
       </c>
       <c r="E90" s="10" t="n">
-        <v>1399.69</v>
+        <v>1092.73</v>
       </c>
       <c r="F90" s="10" t="n">
-        <v>161.85</v>
+        <v>140.98</v>
       </c>
       <c r="G90" s="11" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H90" s="11" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I90" s="11" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>基本面120</t>
         </is>
       </c>
       <c r="J90" s="11" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>116</t>
         </is>
       </c>
       <c r="K90" s="11" t="inlineStr">
@@ -4703,23 +4703,23 @@
     <row r="91">
       <c r="A91" s="7" t="inlineStr">
         <is>
-          <t>嘉实深证基本面120联接</t>
+          <t>建信深证基本面60ETF联接A</t>
         </is>
       </c>
       <c r="B91" s="8" t="n">
-        <v>70023</v>
+        <v>530015</v>
       </c>
       <c r="C91" s="9" t="n">
-        <v>1.7992</v>
+        <v>2.142</v>
       </c>
       <c r="D91" s="10" t="n">
-        <v>528.99</v>
+        <v>451.58</v>
       </c>
       <c r="E91" s="10" t="n">
-        <v>1055.02</v>
+        <v>1086.05</v>
       </c>
       <c r="F91" s="10" t="n">
-        <v>103.26</v>
+        <v>118.77</v>
       </c>
       <c r="G91" s="11" t="inlineStr">
         <is>
@@ -4733,12 +4733,12 @@
       </c>
       <c r="I91" s="11" t="inlineStr">
         <is>
-          <t>基本面120</t>
+          <t>基本面60</t>
         </is>
       </c>
       <c r="J91" s="11" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>115</t>
         </is>
       </c>
       <c r="K91" s="11" t="inlineStr">
@@ -4750,23 +4750,23 @@
     <row r="92">
       <c r="A92" s="7" t="inlineStr">
         <is>
-          <t>建信深证基本面60ETF联接A</t>
+          <t>广发中证养老</t>
         </is>
       </c>
       <c r="B92" s="8" t="n">
-        <v>530015</v>
+        <v>968</v>
       </c>
       <c r="C92" s="9" t="n">
-        <v>2.1357</v>
+        <v>0.9588</v>
       </c>
       <c r="D92" s="10" t="n">
-        <v>436.95</v>
+        <v>426.97</v>
       </c>
       <c r="E92" s="10" t="n">
-        <v>1016.96</v>
+        <v>450.03</v>
       </c>
       <c r="F92" s="10" t="n">
-        <v>83.76000000000001</v>
+        <v>40.65</v>
       </c>
       <c r="G92" s="11" t="inlineStr">
         <is>
@@ -4775,17 +4775,17 @@
       </c>
       <c r="H92" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I92" s="11" t="inlineStr">
         <is>
-          <t>基本面60</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J92" s="11" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K92" s="11" t="inlineStr">
@@ -4797,23 +4797,23 @@
     <row r="93">
       <c r="A93" s="7" t="inlineStr">
         <is>
-          <t>广发中证养老</t>
+          <t>华宝红利基金</t>
         </is>
       </c>
       <c r="B93" s="8" t="n">
-        <v>968</v>
+        <v>501029</v>
       </c>
       <c r="C93" s="9" t="n">
-        <v>0.9588</v>
+        <v>0.9824000000000001</v>
       </c>
       <c r="D93" s="10" t="n">
-        <v>426.97</v>
+        <v>227.52</v>
       </c>
       <c r="E93" s="10" t="n">
-        <v>428.38</v>
+        <v>235.41</v>
       </c>
       <c r="F93" s="10" t="n">
-        <v>19</v>
+        <v>11.9</v>
       </c>
       <c r="G93" s="11" t="inlineStr">
         <is>
@@ -4822,17 +4822,17 @@
       </c>
       <c r="H93" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I93" s="11" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>标普红利</t>
         </is>
       </c>
       <c r="J93" s="11" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>132</t>
         </is>
       </c>
       <c r="K93" s="11" t="inlineStr">
@@ -4844,23 +4844,23 @@
     <row r="94">
       <c r="A94" s="7" t="inlineStr">
         <is>
-          <t>华宝红利基金</t>
+          <t>天弘中证银行指数A</t>
         </is>
       </c>
       <c r="B94" s="8" t="n">
-        <v>501029</v>
+        <v>1594</v>
       </c>
       <c r="C94" s="9" t="n">
-        <v>0.9824000000000001</v>
+        <v>1.2523</v>
       </c>
       <c r="D94" s="10" t="n">
-        <v>227.52</v>
+        <v>158.93</v>
       </c>
       <c r="E94" s="10" t="n">
-        <v>228</v>
+        <v>201.24</v>
       </c>
       <c r="F94" s="10" t="n">
-        <v>4.48</v>
+        <v>2.21</v>
       </c>
       <c r="G94" s="11" t="inlineStr">
         <is>
@@ -4869,17 +4869,17 @@
       </c>
       <c r="H94" s="11" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I94" s="11" t="inlineStr">
         <is>
-          <t>标普红利</t>
+          <t>中证银行</t>
         </is>
       </c>
       <c r="J94" s="11" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>146</t>
         </is>
       </c>
       <c r="K94" s="11" t="inlineStr">
@@ -4904,10 +4904,10 @@
         <v>142.1</v>
       </c>
       <c r="E95" s="10" t="n">
-        <v>196.38</v>
+        <v>198.37</v>
       </c>
       <c r="F95" s="10" t="n">
-        <v>13.93</v>
+        <v>15.92</v>
       </c>
       <c r="G95" s="11" t="inlineStr">
         <is>
@@ -4951,10 +4951,10 @@
         <v>212.74</v>
       </c>
       <c r="E96" s="10" t="n">
-        <v>168.21</v>
+        <v>175.06</v>
       </c>
       <c r="F96" s="10" t="n">
-        <v>25.51</v>
+        <v>32.36</v>
       </c>
       <c r="G96" s="11" t="inlineStr">
         <is>
@@ -4985,23 +4985,23 @@
     <row r="97">
       <c r="A97" s="7" t="inlineStr">
         <is>
-          <t>天弘中证银行指数A</t>
+          <t>申万菱信沪深300价值指数</t>
         </is>
       </c>
       <c r="B97" s="8" t="n">
-        <v>1594</v>
+        <v>310398</v>
       </c>
       <c r="C97" s="9" t="n">
-        <v>1.2423</v>
+        <v>1.4372</v>
       </c>
       <c r="D97" s="10" t="n">
-        <v>97.89</v>
+        <v>25.8</v>
       </c>
       <c r="E97" s="10" t="n">
-        <v>123.15</v>
+        <v>36.9</v>
       </c>
       <c r="F97" s="10" t="n">
-        <v>1.54</v>
+        <v>-0.18</v>
       </c>
       <c r="G97" s="11" t="inlineStr">
         <is>
@@ -5010,17 +5010,17 @@
       </c>
       <c r="H97" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I97" s="11" t="inlineStr">
         <is>
-          <t>中证银行</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="J97" s="11" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K97" s="11" t="inlineStr">
@@ -5032,42 +5032,42 @@
     <row r="98">
       <c r="A98" s="7" t="inlineStr">
         <is>
-          <t>申万菱信沪深300价值指数</t>
+          <t>大成景安短融债券E</t>
         </is>
       </c>
       <c r="B98" s="8" t="n">
-        <v>310398</v>
+        <v>2086</v>
       </c>
       <c r="C98" s="9" t="n">
-        <v>1.4372</v>
+        <v>1.2257</v>
       </c>
       <c r="D98" s="10" t="n">
-        <v>25.8</v>
+        <v>0</v>
       </c>
       <c r="E98" s="10" t="n">
-        <v>36.53</v>
+        <v>0</v>
       </c>
       <c r="F98" s="10" t="n">
-        <v>-0.55</v>
+        <v>0</v>
       </c>
       <c r="G98" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>现金</t>
         </is>
       </c>
       <c r="H98" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>低风险理财</t>
         </is>
       </c>
       <c r="I98" s="11" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>货币基金</t>
         </is>
       </c>
       <c r="J98" s="11" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>999</t>
         </is>
       </c>
       <c r="K98" s="11" t="inlineStr">
@@ -5077,72 +5077,72 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="7" t="inlineStr">
-        <is>
-          <t>大成景安短融债券E</t>
-        </is>
-      </c>
-      <c r="B99" s="8" t="n">
-        <v>2086</v>
-      </c>
-      <c r="C99" s="9" t="n">
-        <v>1.2257</v>
-      </c>
-      <c r="D99" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E99" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F99" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G99" s="11" t="inlineStr">
-        <is>
-          <t>现金</t>
-        </is>
-      </c>
-      <c r="H99" s="11" t="inlineStr">
-        <is>
-          <t>低风险理财</t>
-        </is>
-      </c>
-      <c r="I99" s="11" t="inlineStr">
-        <is>
-          <t>货币基金</t>
-        </is>
-      </c>
-      <c r="J99" s="11" t="inlineStr">
-        <is>
-          <t>999</t>
-        </is>
-      </c>
-      <c r="K99" s="11" t="inlineStr">
-        <is>
-          <t>螺丝钉母</t>
+      <c r="A99" s="27" t="inlineStr">
+        <is>
+          <t>交银稳鑫短债债券A</t>
+        </is>
+      </c>
+      <c r="B99" s="28" t="n">
+        <v>6793</v>
+      </c>
+      <c r="C99" s="29" t="n">
+        <v>1.0286</v>
+      </c>
+      <c r="D99" s="30" t="n">
+        <v>78202.03</v>
+      </c>
+      <c r="E99" s="30" t="n">
+        <v>80892.17999999999</v>
+      </c>
+      <c r="F99" s="30" t="n">
+        <v>453.57</v>
+      </c>
+      <c r="G99" s="31" t="inlineStr">
+        <is>
+          <t>债券</t>
+        </is>
+      </c>
+      <c r="H99" s="31" t="inlineStr">
+        <is>
+          <t>国内债券</t>
+        </is>
+      </c>
+      <c r="I99" s="31" t="inlineStr">
+        <is>
+          <t>可转债</t>
+        </is>
+      </c>
+      <c r="J99" s="31" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="K99" s="31" t="inlineStr">
+        <is>
+          <t>稳稳的幸福父</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="27" t="inlineStr">
         <is>
-          <t>交银稳鑫短债债券A</t>
+          <t>交银信用添利债券(LOF)</t>
         </is>
       </c>
       <c r="B100" s="28" t="n">
-        <v>6793</v>
+        <v>164902</v>
       </c>
       <c r="C100" s="29" t="n">
-        <v>1.0286</v>
+        <v>1.1469</v>
       </c>
       <c r="D100" s="30" t="n">
-        <v>171152.16</v>
+        <v>132767.68</v>
       </c>
       <c r="E100" s="30" t="n">
-        <v>176646.14</v>
+        <v>152417.3</v>
       </c>
       <c r="F100" s="30" t="n">
-        <v>599.03</v>
+        <v>146.04</v>
       </c>
       <c r="G100" s="31" t="inlineStr">
         <is>
@@ -5186,10 +5186,10 @@
         <v>11598.58</v>
       </c>
       <c r="E101" s="30" t="n">
-        <v>18522.93</v>
+        <v>19543.61</v>
       </c>
       <c r="F101" s="30" t="n">
-        <v>1522.89</v>
+        <v>2543.57</v>
       </c>
       <c r="G101" s="31" t="inlineStr">
         <is>
@@ -5227,16 +5227,16 @@
         <v>519718</v>
       </c>
       <c r="C102" s="29" t="n">
-        <v>1.0759</v>
+        <v>1.0763</v>
       </c>
       <c r="D102" s="30" t="n">
-        <v>128864.36</v>
+        <v>143011.92</v>
       </c>
       <c r="E102" s="30" t="n">
-        <v>139173.51</v>
+        <v>155024.92</v>
       </c>
       <c r="F102" s="30" t="n">
-        <v>528.34</v>
+        <v>1101.19</v>
       </c>
       <c r="G102" s="31" t="inlineStr">
         <is>
@@ -5280,10 +5280,10 @@
         <v>132719.84</v>
       </c>
       <c r="E103" s="30" t="n">
-        <v>143337.43</v>
+        <v>143735.59</v>
       </c>
       <c r="F103" s="30" t="n">
-        <v>212.35</v>
+        <v>610.51</v>
       </c>
       <c r="G103" s="31" t="inlineStr">
         <is>
@@ -5314,23 +5314,23 @@
     <row r="104">
       <c r="A104" s="27" t="inlineStr">
         <is>
-          <t>交银新回报灵活配置混合A</t>
+          <t>交银周期回报灵活配置混合A</t>
         </is>
       </c>
       <c r="B104" s="28" t="n">
-        <v>519752</v>
+        <v>519738</v>
       </c>
       <c r="C104" s="29" t="n">
-        <v>1.2439</v>
+        <v>1.211</v>
       </c>
       <c r="D104" s="30" t="n">
-        <v>59685.02</v>
+        <v>66296.46000000001</v>
       </c>
       <c r="E104" s="30" t="n">
-        <v>75083.75999999999</v>
+        <v>80682.78999999999</v>
       </c>
       <c r="F104" s="30" t="n">
-        <v>841.5599999999999</v>
+        <v>397.78</v>
       </c>
       <c r="G104" s="31" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="J104" s="31" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>411</t>
         </is>
       </c>
       <c r="K104" s="31" t="inlineStr">
@@ -5361,23 +5361,23 @@
     <row r="105">
       <c r="A105" s="27" t="inlineStr">
         <is>
-          <t>交银多策略回报灵活配置混合A</t>
+          <t>交银新回报灵活配置混合A</t>
         </is>
       </c>
       <c r="B105" s="28" t="n">
-        <v>519755</v>
+        <v>519752</v>
       </c>
       <c r="C105" s="29" t="n">
-        <v>1.2894</v>
+        <v>1.2439</v>
       </c>
       <c r="D105" s="30" t="n">
-        <v>76964.17</v>
+        <v>59685.02</v>
       </c>
       <c r="E105" s="30" t="n">
-        <v>100746.1</v>
+        <v>75382.17999999999</v>
       </c>
       <c r="F105" s="30" t="n">
-        <v>1508.5</v>
+        <v>1139.98</v>
       </c>
       <c r="G105" s="31" t="inlineStr">
         <is>
@@ -5408,42 +5408,42 @@
     <row r="106">
       <c r="A106" s="27" t="inlineStr">
         <is>
-          <t>交银裕盈纯债债券A</t>
+          <t>交银多策略回报灵活配置混合A</t>
         </is>
       </c>
       <c r="B106" s="28" t="n">
-        <v>519776</v>
+        <v>519755</v>
       </c>
       <c r="C106" s="29" t="n">
-        <v>1.0793</v>
+        <v>1.2894</v>
       </c>
       <c r="D106" s="30" t="n">
-        <v>140577.44</v>
+        <v>76964.17</v>
       </c>
       <c r="E106" s="30" t="n">
-        <v>152343.77</v>
+        <v>101361.81</v>
       </c>
       <c r="F106" s="30" t="n">
-        <v>618.54</v>
+        <v>2124.21</v>
       </c>
       <c r="G106" s="31" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>混合型</t>
         </is>
       </c>
       <c r="H106" s="31" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>股债混合</t>
         </is>
       </c>
       <c r="I106" s="31" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>偏债</t>
         </is>
       </c>
       <c r="J106" s="31" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>412</t>
         </is>
       </c>
       <c r="K106" s="31" t="inlineStr">
@@ -5468,10 +5468,10 @@
         <v>9697.57</v>
       </c>
       <c r="E107" s="35" t="n">
-        <v>11143.48</v>
+        <v>11716.6</v>
       </c>
       <c r="F107" s="35" t="n">
-        <v>942.6</v>
+        <v>1515.73</v>
       </c>
       <c r="G107" s="36" t="inlineStr">
         <is>
@@ -5515,10 +5515,10 @@
         <v>8677.6</v>
       </c>
       <c r="E108" s="35" t="n">
-        <v>10066.02</v>
+        <v>10265.6</v>
       </c>
       <c r="F108" s="35" t="n">
-        <v>1265.19</v>
+        <v>1464.78</v>
       </c>
       <c r="G108" s="36" t="inlineStr">
         <is>
@@ -5562,10 +5562,10 @@
         <v>6096.21</v>
       </c>
       <c r="E109" s="35" t="n">
-        <v>6116.33</v>
+        <v>6425.41</v>
       </c>
       <c r="F109" s="35" t="n">
-        <v>916.26</v>
+        <v>1225.34</v>
       </c>
       <c r="G109" s="36" t="inlineStr">
         <is>
@@ -5609,10 +5609,10 @@
         <v>6750.28</v>
       </c>
       <c r="E110" s="35" t="n">
-        <v>5805.92</v>
+        <v>6015.17</v>
       </c>
       <c r="F110" s="35" t="n">
-        <v>1005.79</v>
+        <v>1215.05</v>
       </c>
       <c r="G110" s="36" t="inlineStr">
         <is>
@@ -5656,10 +5656,10 @@
         <v>2760.12</v>
       </c>
       <c r="E111" s="35" t="n">
-        <v>4692.2</v>
+        <v>4810.89</v>
       </c>
       <c r="F111" s="35" t="n">
-        <v>1092.18</v>
+        <v>1210.86</v>
       </c>
       <c r="G111" s="36" t="inlineStr">
         <is>
@@ -5703,10 +5703,10 @@
         <v>4423.48</v>
       </c>
       <c r="E112" s="35" t="n">
-        <v>3690.07</v>
+        <v>4048.37</v>
       </c>
       <c r="F112" s="35" t="n">
-        <v>489.68</v>
+        <v>847.98</v>
       </c>
       <c r="G112" s="36" t="inlineStr">
         <is>
@@ -5750,10 +5750,10 @@
         <v>5949.77</v>
       </c>
       <c r="E113" s="35" t="n">
-        <v>3505.6</v>
+        <v>3752.52</v>
       </c>
       <c r="F113" s="35" t="n">
-        <v>305.22</v>
+        <v>552.14</v>
       </c>
       <c r="G113" s="36" t="inlineStr">
         <is>
@@ -5797,10 +5797,10 @@
         <v>1981.84</v>
       </c>
       <c r="E114" s="35" t="n">
-        <v>3488.04</v>
+        <v>3541.55</v>
       </c>
       <c r="F114" s="35" t="n">
-        <v>296.88</v>
+        <v>350.39</v>
       </c>
       <c r="G114" s="36" t="inlineStr">
         <is>
@@ -5844,10 +5844,10 @@
         <v>2046.97</v>
       </c>
       <c r="E115" s="35" t="n">
-        <v>3488.04</v>
+        <v>3680.45</v>
       </c>
       <c r="F115" s="35" t="n">
-        <v>775.8</v>
+        <v>968.22</v>
       </c>
       <c r="G115" s="36" t="inlineStr">
         <is>
@@ -5891,10 +5891,10 @@
         <v>1884.74</v>
       </c>
       <c r="E116" s="35" t="n">
-        <v>2286.19</v>
+        <v>2293.73</v>
       </c>
       <c r="F116" s="35" t="n">
-        <v>286.1</v>
+        <v>293.64</v>
       </c>
       <c r="G116" s="36" t="inlineStr">
         <is>
@@ -5938,10 +5938,10 @@
         <v>1213.09</v>
       </c>
       <c r="E117" s="35" t="n">
-        <v>2249.43</v>
+        <v>2409.44</v>
       </c>
       <c r="F117" s="35" t="n">
-        <v>649.37</v>
+        <v>809.37</v>
       </c>
       <c r="G117" s="36" t="inlineStr">
         <is>
@@ -5985,10 +5985,10 @@
         <v>1630.08</v>
       </c>
       <c r="E118" s="35" t="n">
-        <v>1979.57</v>
+        <v>2021.3</v>
       </c>
       <c r="F118" s="35" t="n">
-        <v>379.48</v>
+        <v>421.21</v>
       </c>
       <c r="G118" s="36" t="inlineStr">
         <is>
@@ -6032,10 +6032,10 @@
         <v>1407.29</v>
       </c>
       <c r="E119" s="35" t="n">
-        <v>1915.32</v>
+        <v>2053.24</v>
       </c>
       <c r="F119" s="35" t="n">
-        <v>315.23</v>
+        <v>453.15</v>
       </c>
       <c r="G119" s="36" t="inlineStr">
         <is>
@@ -6079,10 +6079,10 @@
         <v>1338.46</v>
       </c>
       <c r="E120" s="35" t="n">
-        <v>1398.69</v>
+        <v>1409.4</v>
       </c>
       <c r="F120" s="35" t="n">
-        <v>198.63</v>
+        <v>209.34</v>
       </c>
       <c r="G120" s="36" t="inlineStr">
         <is>
@@ -6126,10 +6126,10 @@
         <v>3350.7</v>
       </c>
       <c r="E121" s="35" t="n">
-        <v>1373.79</v>
+        <v>1333.58</v>
       </c>
       <c r="F121" s="35" t="n">
-        <v>-226.51</v>
+        <v>-266.72</v>
       </c>
       <c r="G121" s="36" t="inlineStr">
         <is>
@@ -6173,10 +6173,10 @@
         <v>1546.42</v>
       </c>
       <c r="E122" s="35" t="n">
-        <v>1270.69</v>
+        <v>1347.09</v>
       </c>
       <c r="F122" s="35" t="n">
-        <v>70.67</v>
+        <v>147.06</v>
       </c>
       <c r="G122" s="36" t="inlineStr">
         <is>
@@ -6220,10 +6220,10 @@
         <v>900.35</v>
       </c>
       <c r="E123" s="35" t="n">
-        <v>1039.18</v>
+        <v>1046.75</v>
       </c>
       <c r="F123" s="35" t="n">
-        <v>239.13</v>
+        <v>246.7</v>
       </c>
       <c r="G123" s="36" t="inlineStr">
         <is>
@@ -6267,10 +6267,10 @@
         <v>733.79</v>
       </c>
       <c r="E124" s="35" t="n">
-        <v>914.74</v>
+        <v>920.3200000000001</v>
       </c>
       <c r="F124" s="35" t="n">
-        <v>114.69</v>
+        <v>120.27</v>
       </c>
       <c r="G124" s="36" t="inlineStr">
         <is>
@@ -6314,10 +6314,10 @@
         <v>496.13</v>
       </c>
       <c r="E125" s="35" t="n">
-        <v>550.9</v>
+        <v>556.21</v>
       </c>
       <c r="F125" s="35" t="n">
-        <v>150.87</v>
+        <v>156.18</v>
       </c>
       <c r="G125" s="36" t="inlineStr">
         <is>
@@ -6361,10 +6361,10 @@
         <v>333.04</v>
       </c>
       <c r="E126" s="35" t="n">
-        <v>476.38</v>
+        <v>487.37</v>
       </c>
       <c r="F126" s="35" t="n">
-        <v>76.37</v>
+        <v>87.36</v>
       </c>
       <c r="G126" s="36" t="inlineStr">
         <is>
@@ -6408,10 +6408,10 @@
         <v>325.61</v>
       </c>
       <c r="E127" s="35" t="n">
-        <v>445.43</v>
+        <v>456.51</v>
       </c>
       <c r="F127" s="35" t="n">
-        <v>45.42</v>
+        <v>56.49</v>
       </c>
       <c r="G127" s="36" t="inlineStr">
         <is>
@@ -6455,10 +6455,10 @@
         <v>275.49</v>
       </c>
       <c r="E128" s="35" t="n">
-        <v>432.46</v>
+        <v>441.58</v>
       </c>
       <c r="F128" s="35" t="n">
-        <v>32.45</v>
+        <v>41.57</v>
       </c>
       <c r="G128" s="36" t="inlineStr">
         <is>
@@ -6502,10 +6502,10 @@
         <v>206.23</v>
       </c>
       <c r="E129" s="35" t="n">
-        <v>425.02</v>
+        <v>447.79</v>
       </c>
       <c r="F129" s="35" t="n">
-        <v>25.02</v>
+        <v>47.78</v>
       </c>
       <c r="G129" s="36" t="inlineStr">
         <is>
@@ -6533,54 +6533,7 @@
         </is>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="32" t="inlineStr">
-        <is>
-          <t>广发中证500ETF联接C</t>
-        </is>
-      </c>
-      <c r="B130" s="33" t="n">
-        <v>2903</v>
-      </c>
-      <c r="C130" s="34" t="n">
-        <v>0.829</v>
-      </c>
-      <c r="D130" s="35" t="n">
-        <v>275.96</v>
-      </c>
-      <c r="E130" s="35" t="n">
-        <v>253.3</v>
-      </c>
-      <c r="F130" s="35" t="n">
-        <v>24.53</v>
-      </c>
-      <c r="G130" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H130" s="36" t="inlineStr">
-        <is>
-          <t>中小盘股</t>
-        </is>
-      </c>
-      <c r="I130" s="36" t="inlineStr">
-        <is>
-          <t>中证500</t>
-        </is>
-      </c>
-      <c r="J130" s="36" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="K130" s="36" t="inlineStr">
-        <is>
-          <t>天天基金母</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/scripts/output/202001/全家/全家整体资产配置.xlsx
+++ b/scripts/output/202001/全家/全家整体资产配置.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:K128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,13 +530,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>141470.9</v>
+        <v>159655.38</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>141470.9</v>
+        <v>159655.38</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>6273.85</v>
+        <v>6473.85</v>
       </c>
       <c r="G2" s="6" t="inlineStr">
         <is>
@@ -621,16 +621,16 @@
         <v>90010</v>
       </c>
       <c r="C4" s="9" t="n">
-        <v>1.6538</v>
+        <v>1.6554</v>
       </c>
       <c r="D4" s="10" t="n">
-        <v>2684.17</v>
+        <v>2743.28</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>4632.88</v>
+        <v>4638.89</v>
       </c>
       <c r="F4" s="10" t="n">
-        <v>193.8</v>
+        <v>97.66</v>
       </c>
       <c r="G4" s="11" t="inlineStr">
         <is>
@@ -668,16 +668,16 @@
         <v>519671</v>
       </c>
       <c r="C5" s="9" t="n">
-        <v>1.4332</v>
+        <v>1.435</v>
       </c>
       <c r="D5" s="10" t="n">
-        <v>2981.05</v>
+        <v>3046.82</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>4516.29</v>
+        <v>4487.97</v>
       </c>
       <c r="F5" s="10" t="n">
-        <v>243.85</v>
+        <v>115.78</v>
       </c>
       <c r="G5" s="11" t="inlineStr">
         <is>
@@ -715,16 +715,16 @@
         <v>3318</v>
       </c>
       <c r="C6" s="9" t="n">
-        <v>0.9363</v>
+        <v>0.9376</v>
       </c>
       <c r="D6" s="10" t="n">
-        <v>4027.38</v>
+        <v>4114.92</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>4028.59</v>
+        <v>4104.22</v>
       </c>
       <c r="F6" s="10" t="n">
-        <v>257.75</v>
+        <v>246.07</v>
       </c>
       <c r="G6" s="11" t="inlineStr">
         <is>
@@ -768,10 +768,10 @@
         <v>2260.14</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>3506.83</v>
+        <v>3475.19</v>
       </c>
       <c r="F7" s="10" t="n">
-        <v>459.94</v>
+        <v>428.3</v>
       </c>
       <c r="G7" s="11" t="inlineStr">
         <is>
@@ -815,10 +815,10 @@
         <v>1363.37</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>2816.31</v>
+        <v>2754.96</v>
       </c>
       <c r="F8" s="10" t="n">
-        <v>364.02</v>
+        <v>302.67</v>
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         <v>1134.65</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>2728.83</v>
+        <v>2655.08</v>
       </c>
       <c r="F9" s="10" t="n">
-        <v>305.22</v>
+        <v>231.47</v>
       </c>
       <c r="G9" s="11" t="inlineStr">
         <is>
@@ -909,10 +909,10 @@
         <v>1067.42</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>1125.06</v>
+        <v>1105.74</v>
       </c>
       <c r="F10" s="10" t="n">
-        <v>101.51</v>
+        <v>82.19</v>
       </c>
       <c r="G10" s="11" t="inlineStr">
         <is>
@@ -943,23 +943,23 @@
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>华宝红利基金</t>
+          <t>天弘中证银行指数A</t>
         </is>
       </c>
       <c r="B11" s="8" t="n">
-        <v>501029</v>
+        <v>1594</v>
       </c>
       <c r="C11" s="9" t="n">
-        <v>0.9827</v>
+        <v>1.2542</v>
       </c>
       <c r="D11" s="10" t="n">
-        <v>550.4</v>
+        <v>471.41</v>
       </c>
       <c r="E11" s="10" t="n">
-        <v>569.5</v>
+        <v>580.45</v>
       </c>
       <c r="F11" s="10" t="n">
-        <v>28.62</v>
+        <v>-10.8</v>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
@@ -968,17 +968,17 @@
       </c>
       <c r="H11" s="11" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I11" s="11" t="inlineStr">
         <is>
-          <t>标普红利</t>
+          <t>中证银行</t>
         </is>
       </c>
       <c r="J11" s="11" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>146</t>
         </is>
       </c>
       <c r="K11" s="11" t="inlineStr">
@@ -990,23 +990,23 @@
     <row r="12">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>天弘中证银行指数A</t>
+          <t>华宝红利基金</t>
         </is>
       </c>
       <c r="B12" s="8" t="n">
-        <v>1594</v>
+        <v>501029</v>
       </c>
       <c r="C12" s="9" t="n">
-        <v>1.2523</v>
+        <v>0.9827</v>
       </c>
       <c r="D12" s="10" t="n">
-        <v>396.18</v>
+        <v>550.4</v>
       </c>
       <c r="E12" s="10" t="n">
-        <v>501.64</v>
+        <v>557.39</v>
       </c>
       <c r="F12" s="10" t="n">
-        <v>5.51</v>
+        <v>16.51</v>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
@@ -1015,17 +1015,17 @@
       </c>
       <c r="H12" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I12" s="11" t="inlineStr">
         <is>
-          <t>中证银行</t>
+          <t>标普红利</t>
         </is>
       </c>
       <c r="J12" s="11" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>132</t>
         </is>
       </c>
       <c r="K12" s="11" t="inlineStr">
@@ -1050,10 +1050,10 @@
         <v>531.87</v>
       </c>
       <c r="E13" s="10" t="n">
-        <v>437.68</v>
+        <v>456.08</v>
       </c>
       <c r="F13" s="10" t="n">
-        <v>80.90000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="G13" s="11" t="inlineStr">
         <is>
@@ -1097,10 +1097,10 @@
         <v>247.91</v>
       </c>
       <c r="E14" s="10" t="n">
-        <v>346.08</v>
+        <v>333.69</v>
       </c>
       <c r="F14" s="10" t="n">
-        <v>32.82</v>
+        <v>20.43</v>
       </c>
       <c r="G14" s="11" t="inlineStr">
         <is>
@@ -1144,10 +1144,10 @@
         <v>64.5</v>
       </c>
       <c r="E15" s="10" t="n">
-        <v>92.25</v>
+        <v>89.76000000000001</v>
       </c>
       <c r="F15" s="10" t="n">
-        <v>-0.46</v>
+        <v>-2.95</v>
       </c>
       <c r="G15" s="11" t="inlineStr">
         <is>
@@ -1235,10 +1235,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="15" t="n">
-        <v>322553.75</v>
+        <v>319017.75</v>
       </c>
       <c r="E17" s="15" t="n">
-        <v>322553.75</v>
+        <v>319017.75</v>
       </c>
       <c r="F17" s="15" t="n">
         <v>7027.67</v>
@@ -1270,119 +1270,119 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="12" t="inlineStr">
-        <is>
-          <t>无息外借款</t>
-        </is>
-      </c>
-      <c r="B18" s="13" t="n">
-        <v>999988</v>
-      </c>
-      <c r="C18" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="15" t="n">
-        <v>15000</v>
-      </c>
-      <c r="E18" s="15" t="n">
-        <v>15000</v>
-      </c>
-      <c r="F18" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="16" t="inlineStr">
-        <is>
-          <t>冻结资金</t>
-        </is>
-      </c>
-      <c r="H18" s="16" t="inlineStr">
-        <is>
-          <t>无息资金</t>
-        </is>
-      </c>
-      <c r="I18" s="16" t="inlineStr">
-        <is>
-          <t>无息外借款</t>
-        </is>
-      </c>
-      <c r="J18" s="16" t="inlineStr">
-        <is>
-          <t>988</t>
-        </is>
-      </c>
-      <c r="K18" s="16" t="inlineStr">
-        <is>
-          <t>冻结资金</t>
+      <c r="A18" s="17" t="inlineStr">
+        <is>
+          <t>广发中证环保ETF联接基金A</t>
+        </is>
+      </c>
+      <c r="B18" s="18" t="n">
+        <v>1064</v>
+      </c>
+      <c r="C18" s="19" t="n">
+        <v>0.7171999999999999</v>
+      </c>
+      <c r="D18" s="20" t="n">
+        <v>16731.88</v>
+      </c>
+      <c r="E18" s="20" t="n">
+        <v>10653.19</v>
+      </c>
+      <c r="F18" s="20" t="n">
+        <v>-1346.92</v>
+      </c>
+      <c r="G18" s="21" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H18" s="21" t="inlineStr">
+        <is>
+          <t>行业股</t>
+        </is>
+      </c>
+      <c r="I18" s="21" t="inlineStr">
+        <is>
+          <t>中证环保</t>
+        </is>
+      </c>
+      <c r="J18" s="21" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="K18" s="21" t="inlineStr">
+        <is>
+          <t>支付宝</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="17" t="inlineStr">
-        <is>
-          <t>广发中证环保ETF联接基金A</t>
-        </is>
-      </c>
-      <c r="B19" s="18" t="n">
-        <v>1064</v>
-      </c>
-      <c r="C19" s="19" t="n">
-        <v>0.7171999999999999</v>
-      </c>
-      <c r="D19" s="20" t="n">
-        <v>16731.88</v>
-      </c>
-      <c r="E19" s="20" t="n">
-        <v>10552.8</v>
-      </c>
-      <c r="F19" s="20" t="n">
-        <v>-1447.31</v>
-      </c>
-      <c r="G19" s="21" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H19" s="21" t="inlineStr">
-        <is>
-          <t>行业股</t>
-        </is>
-      </c>
-      <c r="I19" s="21" t="inlineStr">
-        <is>
-          <t>中证环保</t>
-        </is>
-      </c>
-      <c r="J19" s="21" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="K19" s="21" t="inlineStr">
-        <is>
-          <t>支付宝</t>
+      <c r="A19" s="22" t="inlineStr">
+        <is>
+          <t>50ETF</t>
+        </is>
+      </c>
+      <c r="B19" s="23" t="n">
+        <v>510050</v>
+      </c>
+      <c r="C19" s="24" t="n">
+        <v>2.337</v>
+      </c>
+      <c r="D19" s="25" t="n">
+        <v>2700</v>
+      </c>
+      <c r="E19" s="25" t="n">
+        <v>8127</v>
+      </c>
+      <c r="F19" s="25" t="n">
+        <v>1817.1</v>
+      </c>
+      <c r="G19" s="26" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H19" s="26" t="inlineStr">
+        <is>
+          <t>大盘股</t>
+        </is>
+      </c>
+      <c r="I19" s="26" t="inlineStr">
+        <is>
+          <t>上证50</t>
+        </is>
+      </c>
+      <c r="J19" s="26" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="K19" s="26" t="inlineStr">
+        <is>
+          <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="22" t="inlineStr">
         <is>
-          <t>50ETF</t>
+          <t>300ETF</t>
         </is>
       </c>
       <c r="B20" s="23" t="n">
-        <v>510050</v>
+        <v>510300</v>
       </c>
       <c r="C20" s="24" t="n">
-        <v>2.337</v>
+        <v>3.447</v>
       </c>
       <c r="D20" s="25" t="n">
-        <v>2700</v>
+        <v>9100</v>
       </c>
       <c r="E20" s="25" t="n">
-        <v>8324.1</v>
+        <v>37550.24</v>
       </c>
       <c r="F20" s="25" t="n">
-        <v>2014.2</v>
+        <v>6182.54</v>
       </c>
       <c r="G20" s="26" t="inlineStr">
         <is>
@@ -1396,12 +1396,12 @@
       </c>
       <c r="I20" s="26" t="inlineStr">
         <is>
-          <t>上证50</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="J20" s="26" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K20" s="26" t="inlineStr">
@@ -1413,23 +1413,23 @@
     <row r="21">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>300ETF</t>
+          <t>500ETF</t>
         </is>
       </c>
       <c r="B21" s="23" t="n">
-        <v>510300</v>
+        <v>510500</v>
       </c>
       <c r="C21" s="24" t="n">
-        <v>3.447</v>
+        <v>5.601</v>
       </c>
       <c r="D21" s="25" t="n">
-        <v>9100</v>
+        <v>38800</v>
       </c>
       <c r="E21" s="25" t="n">
-        <v>38215.45</v>
+        <v>234414.08</v>
       </c>
       <c r="F21" s="25" t="n">
-        <v>6847.75</v>
+        <v>17095.28</v>
       </c>
       <c r="G21" s="26" t="inlineStr">
         <is>
@@ -1438,17 +1438,17 @@
       </c>
       <c r="H21" s="26" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I21" s="26" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J21" s="26" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K21" s="26" t="inlineStr">
@@ -1460,23 +1460,23 @@
     <row r="22">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>500ETF</t>
+          <t>环保ETF</t>
         </is>
       </c>
       <c r="B22" s="23" t="n">
-        <v>510500</v>
+        <v>512580</v>
       </c>
       <c r="C22" s="24" t="n">
-        <v>5.601</v>
+        <v>0.877</v>
       </c>
       <c r="D22" s="25" t="n">
-        <v>38800</v>
+        <v>33800</v>
       </c>
       <c r="E22" s="25" t="n">
-        <v>233719.56</v>
+        <v>28885.48</v>
       </c>
       <c r="F22" s="25" t="n">
-        <v>16400.76</v>
+        <v>-757.12</v>
       </c>
       <c r="G22" s="26" t="inlineStr">
         <is>
@@ -1485,17 +1485,17 @@
       </c>
       <c r="H22" s="26" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I22" s="26" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="J22" s="26" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K22" s="26" t="inlineStr">
@@ -1507,23 +1507,23 @@
     <row r="23">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>环保ETF</t>
+          <t>证券ETF</t>
         </is>
       </c>
       <c r="B23" s="23" t="n">
-        <v>512580</v>
+        <v>512880</v>
       </c>
       <c r="C23" s="24" t="n">
-        <v>0.877</v>
+        <v>0.783</v>
       </c>
       <c r="D23" s="25" t="n">
-        <v>33800</v>
+        <v>32700</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>28598.18</v>
+        <v>33837.96</v>
       </c>
       <c r="F23" s="25" t="n">
-        <v>-1044.42</v>
+        <v>8233.860000000001</v>
       </c>
       <c r="G23" s="26" t="inlineStr">
         <is>
@@ -1537,12 +1537,12 @@
       </c>
       <c r="I23" s="26" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>证券公司</t>
         </is>
       </c>
       <c r="J23" s="26" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>145</t>
         </is>
       </c>
       <c r="K23" s="26" t="inlineStr">
@@ -1554,23 +1554,23 @@
     <row r="24">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>证券ETF</t>
+          <t>传媒ETF</t>
         </is>
       </c>
       <c r="B24" s="23" t="n">
-        <v>512880</v>
+        <v>512980</v>
       </c>
       <c r="C24" s="24" t="n">
-        <v>0.783</v>
+        <v>0.869</v>
       </c>
       <c r="D24" s="25" t="n">
-        <v>32700</v>
+        <v>34100</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>34367.7</v>
+        <v>30765.02</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>8763.6</v>
+        <v>1132.12</v>
       </c>
       <c r="G24" s="26" t="inlineStr">
         <is>
@@ -1584,12 +1584,12 @@
       </c>
       <c r="I24" s="26" t="inlineStr">
         <is>
-          <t>证券公司</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="J24" s="26" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>144</t>
         </is>
       </c>
       <c r="K24" s="26" t="inlineStr">
@@ -1601,42 +1601,42 @@
     <row r="25">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>黄金ETF</t>
         </is>
       </c>
       <c r="B25" s="23" t="n">
-        <v>512980</v>
+        <v>518880</v>
       </c>
       <c r="C25" s="24" t="n">
-        <v>0.869</v>
+        <v>2.856</v>
       </c>
       <c r="D25" s="25" t="n">
-        <v>34100</v>
+        <v>4500</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>31498.17</v>
+        <v>15362.1</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>1865.27</v>
+        <v>2510.1</v>
       </c>
       <c r="G25" s="26" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H25" s="26" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I25" s="26" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>黄金</t>
         </is>
       </c>
       <c r="J25" s="26" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>611</t>
         </is>
       </c>
       <c r="K25" s="26" t="inlineStr">
@@ -1648,42 +1648,42 @@
     <row r="26">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>创业板</t>
         </is>
       </c>
       <c r="B26" s="23" t="n">
-        <v>518880</v>
+        <v>159915</v>
       </c>
       <c r="C26" s="24" t="n">
-        <v>2.856</v>
+        <v>1.399</v>
       </c>
       <c r="D26" s="25" t="n">
-        <v>4500</v>
+        <v>9200</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>15233.85</v>
+        <v>17640.08</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>2381.85</v>
+        <v>4769.28</v>
       </c>
       <c r="G26" s="26" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H26" s="26" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I26" s="26" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>创业板</t>
         </is>
       </c>
       <c r="J26" s="26" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>124</t>
         </is>
       </c>
       <c r="K26" s="26" t="inlineStr">
@@ -1695,23 +1695,23 @@
     <row r="27">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>广发医药</t>
         </is>
       </c>
       <c r="B27" s="23" t="n">
-        <v>159915</v>
+        <v>159938</v>
       </c>
       <c r="C27" s="24" t="n">
-        <v>1.399</v>
+        <v>1.271</v>
       </c>
       <c r="D27" s="25" t="n">
-        <v>9200</v>
+        <v>14400</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>17123.96</v>
+        <v>21254.4</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>4253.16</v>
+        <v>2952</v>
       </c>
       <c r="G27" s="26" t="inlineStr">
         <is>
@@ -1720,92 +1720,92 @@
       </c>
       <c r="H27" s="26" t="inlineStr">
         <is>
+          <t>行业股</t>
+        </is>
+      </c>
+      <c r="I27" s="26" t="inlineStr">
+        <is>
+          <t>全指医药</t>
+        </is>
+      </c>
+      <c r="J27" s="26" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="K27" s="26" t="inlineStr">
+        <is>
+          <t>股票账户</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="27" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="B28" s="28" t="n">
+        <v>478</v>
+      </c>
+      <c r="C28" s="29" t="n">
+        <v>1.9252</v>
+      </c>
+      <c r="D28" s="30" t="n">
+        <v>4157.52</v>
+      </c>
+      <c r="E28" s="30" t="n">
+        <v>9020.16</v>
+      </c>
+      <c r="F28" s="30" t="n">
+        <v>1016.1</v>
+      </c>
+      <c r="G28" s="31" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H28" s="31" t="inlineStr">
+        <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="I27" s="26" t="inlineStr">
-        <is>
-          <t>创业板</t>
-        </is>
-      </c>
-      <c r="J27" s="26" t="inlineStr">
-        <is>
-          <t>124</t>
-        </is>
-      </c>
-      <c r="K27" s="26" t="inlineStr">
-        <is>
-          <t>股票账户</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="22" t="inlineStr">
-        <is>
-          <t>广发医药</t>
-        </is>
-      </c>
-      <c r="B28" s="23" t="n">
-        <v>159938</v>
-      </c>
-      <c r="C28" s="24" t="n">
-        <v>1.271</v>
-      </c>
-      <c r="D28" s="25" t="n">
-        <v>14400</v>
-      </c>
-      <c r="E28" s="25" t="n">
-        <v>20659.68</v>
-      </c>
-      <c r="F28" s="25" t="n">
-        <v>2357.28</v>
-      </c>
-      <c r="G28" s="26" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H28" s="26" t="inlineStr">
-        <is>
-          <t>行业股</t>
-        </is>
-      </c>
-      <c r="I28" s="26" t="inlineStr">
-        <is>
-          <t>全指医药</t>
-        </is>
-      </c>
-      <c r="J28" s="26" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="K28" s="26" t="inlineStr">
-        <is>
-          <t>股票账户</t>
+      <c r="I28" s="31" t="inlineStr">
+        <is>
+          <t>中证500</t>
+        </is>
+      </c>
+      <c r="J28" s="31" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="K28" s="31" t="inlineStr">
+        <is>
+          <t>且慢 150 份</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="27" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B29" s="28" t="n">
-        <v>478</v>
+        <v>1064</v>
       </c>
       <c r="C29" s="29" t="n">
-        <v>1.9252</v>
+        <v>0.5489000000000001</v>
       </c>
       <c r="D29" s="30" t="n">
-        <v>4157.52</v>
+        <v>9722</v>
       </c>
       <c r="E29" s="30" t="n">
-        <v>9027.219999999999</v>
+        <v>6190</v>
       </c>
       <c r="F29" s="30" t="n">
-        <v>1023.17</v>
+        <v>853.59</v>
       </c>
       <c r="G29" s="31" t="inlineStr">
         <is>
@@ -1814,17 +1814,17 @@
       </c>
       <c r="H29" s="31" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I29" s="31" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="J29" s="31" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K29" s="31" t="inlineStr">
@@ -1836,23 +1836,23 @@
     <row r="30">
       <c r="A30" s="27" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B30" s="28" t="n">
-        <v>1064</v>
+        <v>968</v>
       </c>
       <c r="C30" s="29" t="n">
-        <v>0.5489000000000001</v>
+        <v>0.9444</v>
       </c>
       <c r="D30" s="30" t="n">
-        <v>9722</v>
+        <v>4943.96</v>
       </c>
       <c r="E30" s="30" t="n">
-        <v>6131.67</v>
+        <v>5121.45</v>
       </c>
       <c r="F30" s="30" t="n">
-        <v>795.26</v>
+        <v>452.37</v>
       </c>
       <c r="G30" s="31" t="inlineStr">
         <is>
@@ -1866,12 +1866,12 @@
       </c>
       <c r="I30" s="31" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J30" s="31" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K30" s="31" t="inlineStr">
@@ -1883,23 +1883,23 @@
     <row r="31">
       <c r="A31" s="27" t="inlineStr">
         <is>
-          <t>广发养老指数A</t>
+          <t>华夏中证500ETF联接A</t>
         </is>
       </c>
       <c r="B31" s="28" t="n">
-        <v>968</v>
+        <v>1052</v>
       </c>
       <c r="C31" s="29" t="n">
-        <v>0.9444</v>
+        <v>0.5423</v>
       </c>
       <c r="D31" s="30" t="n">
-        <v>4943.96</v>
+        <v>7379.54</v>
       </c>
       <c r="E31" s="30" t="n">
-        <v>5210.93</v>
+        <v>4553.18</v>
       </c>
       <c r="F31" s="30" t="n">
-        <v>541.86</v>
+        <v>551.25</v>
       </c>
       <c r="G31" s="31" t="inlineStr">
         <is>
@@ -1908,17 +1908,17 @@
       </c>
       <c r="H31" s="31" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I31" s="31" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J31" s="31" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K31" s="31" t="inlineStr">
@@ -1930,23 +1930,23 @@
     <row r="32">
       <c r="A32" s="27" t="inlineStr">
         <is>
-          <t>华夏中证500ETF联接A</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="B32" s="28" t="n">
-        <v>1052</v>
+        <v>100032</v>
       </c>
       <c r="C32" s="29" t="n">
-        <v>0.5423</v>
+        <v>1.0919</v>
       </c>
       <c r="D32" s="30" t="n">
-        <v>7379.54</v>
+        <v>3665.01</v>
       </c>
       <c r="E32" s="30" t="n">
-        <v>4538.42</v>
+        <v>4255.08</v>
       </c>
       <c r="F32" s="30" t="n">
-        <v>536.49</v>
+        <v>253.25</v>
       </c>
       <c r="G32" s="31" t="inlineStr">
         <is>
@@ -1955,17 +1955,17 @@
       </c>
       <c r="H32" s="31" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I32" s="31" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J32" s="31" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K32" s="31" t="inlineStr">
@@ -1977,23 +1977,23 @@
     <row r="33">
       <c r="A33" s="27" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
       <c r="B33" s="28" t="n">
-        <v>100032</v>
+        <v>4752</v>
       </c>
       <c r="C33" s="29" t="n">
-        <v>1.0919</v>
+        <v>0.7329</v>
       </c>
       <c r="D33" s="30" t="n">
-        <v>3665.01</v>
+        <v>4550.55</v>
       </c>
       <c r="E33" s="30" t="n">
-        <v>4335.71</v>
+        <v>4074.56</v>
       </c>
       <c r="F33" s="30" t="n">
-        <v>333.88</v>
+        <v>739.46</v>
       </c>
       <c r="G33" s="31" t="inlineStr">
         <is>
@@ -2002,17 +2002,17 @@
       </c>
       <c r="H33" s="31" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I33" s="31" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="J33" s="31" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>144</t>
         </is>
       </c>
       <c r="K33" s="31" t="inlineStr">
@@ -2024,23 +2024,23 @@
     <row r="34">
       <c r="A34" s="27" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>易方达创业板ETF联接A</t>
         </is>
       </c>
       <c r="B34" s="28" t="n">
-        <v>4752</v>
+        <v>110026</v>
       </c>
       <c r="C34" s="29" t="n">
-        <v>0.7329</v>
+        <v>1.6649</v>
       </c>
       <c r="D34" s="30" t="n">
-        <v>4550.55</v>
+        <v>400.63</v>
       </c>
       <c r="E34" s="30" t="n">
-        <v>4164.66</v>
+        <v>818.29</v>
       </c>
       <c r="F34" s="30" t="n">
-        <v>829.5700000000001</v>
+        <v>151.28</v>
       </c>
       <c r="G34" s="31" t="inlineStr">
         <is>
@@ -2049,17 +2049,17 @@
       </c>
       <c r="H34" s="31" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I34" s="31" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>创业板</t>
         </is>
       </c>
       <c r="J34" s="31" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>124</t>
         </is>
       </c>
       <c r="K34" s="31" t="inlineStr">
@@ -2071,23 +2071,23 @@
     <row r="35">
       <c r="A35" s="27" t="inlineStr">
         <is>
-          <t>易方达创业板ETF联接A</t>
+          <t>广发创业板ETF联接A</t>
         </is>
       </c>
       <c r="B35" s="28" t="n">
-        <v>110026</v>
+        <v>3765</v>
       </c>
       <c r="C35" s="29" t="n">
-        <v>1.6649</v>
+        <v>0.9059</v>
       </c>
       <c r="D35" s="30" t="n">
-        <v>400.63</v>
+        <v>736.3</v>
       </c>
       <c r="E35" s="30" t="n">
-        <v>795.73</v>
+        <v>810.74</v>
       </c>
       <c r="F35" s="30" t="n">
-        <v>128.72</v>
+        <v>143.73</v>
       </c>
       <c r="G35" s="31" t="inlineStr">
         <is>
@@ -2118,23 +2118,23 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>广发创业板ETF联接A</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B36" s="28" t="n">
-        <v>3765</v>
+        <v>1180</v>
       </c>
       <c r="C36" s="29" t="n">
-        <v>0.9059</v>
+        <v>0.8242</v>
       </c>
       <c r="D36" s="30" t="n">
-        <v>736.3</v>
+        <v>809.28</v>
       </c>
       <c r="E36" s="30" t="n">
-        <v>791.38</v>
+        <v>740.73</v>
       </c>
       <c r="F36" s="30" t="n">
-        <v>124.36</v>
+        <v>73.73</v>
       </c>
       <c r="G36" s="31" t="inlineStr">
         <is>
@@ -2143,17 +2143,17 @@
       </c>
       <c r="H36" s="31" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I36" s="31" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J36" s="31" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K36" s="31" t="inlineStr">
@@ -2165,23 +2165,23 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>广发医药卫生联接A</t>
+          <t>易方达证券公司分级</t>
         </is>
       </c>
       <c r="B37" s="28" t="n">
-        <v>1180</v>
+        <v>502010</v>
       </c>
       <c r="C37" s="29" t="n">
-        <v>0.8242</v>
+        <v>0.9853</v>
       </c>
       <c r="D37" s="30" t="n">
-        <v>809.28</v>
+        <v>473.85</v>
       </c>
       <c r="E37" s="30" t="n">
-        <v>721.15</v>
+        <v>525.12</v>
       </c>
       <c r="F37" s="30" t="n">
-        <v>54.14</v>
+        <v>58.24</v>
       </c>
       <c r="G37" s="31" t="inlineStr">
         <is>
@@ -2195,12 +2195,12 @@
       </c>
       <c r="I37" s="31" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>证券公司</t>
         </is>
       </c>
       <c r="J37" s="31" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>145</t>
         </is>
       </c>
       <c r="K37" s="31" t="inlineStr">
@@ -2212,42 +2212,42 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>易方达证券公司分级</t>
+          <t>华宝标普石油指数</t>
         </is>
       </c>
       <c r="B38" s="28" t="n">
-        <v>502010</v>
+        <v>162411</v>
       </c>
       <c r="C38" s="29" t="n">
-        <v>0.9853</v>
+        <v>0.3775</v>
       </c>
       <c r="D38" s="30" t="n">
-        <v>473.85</v>
+        <v>5299.96</v>
       </c>
       <c r="E38" s="30" t="n">
-        <v>531.23</v>
+        <v>2048.96</v>
       </c>
       <c r="F38" s="30" t="n">
-        <v>64.34999999999999</v>
+        <v>48.23</v>
       </c>
       <c r="G38" s="31" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H38" s="31" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I38" s="31" t="inlineStr">
         <is>
-          <t>证券公司</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="J38" s="31" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>613</t>
         </is>
       </c>
       <c r="K38" s="31" t="inlineStr">
@@ -2259,42 +2259,42 @@
     <row r="39">
       <c r="A39" s="27" t="inlineStr">
         <is>
-          <t>华宝标普石油指数</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B39" s="28" t="n">
-        <v>162411</v>
+        <v>164906</v>
       </c>
       <c r="C39" s="29" t="n">
-        <v>0.3775</v>
+        <v>1.1564</v>
       </c>
       <c r="D39" s="30" t="n">
-        <v>5299.96</v>
+        <v>576.8</v>
       </c>
       <c r="E39" s="30" t="n">
-        <v>2109.38</v>
+        <v>845.59</v>
       </c>
       <c r="F39" s="30" t="n">
-        <v>108.65</v>
+        <v>178.58</v>
       </c>
       <c r="G39" s="31" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H39" s="31" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I39" s="31" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J39" s="31" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>221</t>
         </is>
       </c>
       <c r="K39" s="31" t="inlineStr">
@@ -2306,23 +2306,23 @@
     <row r="40">
       <c r="A40" s="27" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B40" s="28" t="n">
-        <v>164906</v>
+        <v>71</v>
       </c>
       <c r="C40" s="29" t="n">
-        <v>1.1564</v>
+        <v>1.451</v>
       </c>
       <c r="D40" s="30" t="n">
-        <v>576.8</v>
+        <v>459.67</v>
       </c>
       <c r="E40" s="30" t="n">
-        <v>841.55</v>
+        <v>717.64</v>
       </c>
       <c r="F40" s="30" t="n">
-        <v>174.54</v>
+        <v>50.66</v>
       </c>
       <c r="G40" s="31" t="inlineStr">
         <is>
@@ -2331,17 +2331,17 @@
       </c>
       <c r="H40" s="31" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I40" s="31" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="J40" s="31" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>211</t>
         </is>
       </c>
       <c r="K40" s="31" t="inlineStr">
@@ -2353,42 +2353,42 @@
     <row r="41">
       <c r="A41" s="27" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B41" s="28" t="n">
-        <v>71</v>
+        <v>614</v>
       </c>
       <c r="C41" s="29" t="n">
-        <v>1.451</v>
+        <v>1.0903</v>
       </c>
       <c r="D41" s="30" t="n">
-        <v>459.67</v>
+        <v>611.75</v>
       </c>
       <c r="E41" s="30" t="n">
-        <v>736.8099999999999</v>
+        <v>739.61</v>
       </c>
       <c r="F41" s="30" t="n">
-        <v>69.81999999999999</v>
+        <v>72.61</v>
       </c>
       <c r="G41" s="31" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="H41" s="31" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>德国</t>
         </is>
       </c>
       <c r="I41" s="31" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>德国30</t>
         </is>
       </c>
       <c r="J41" s="31" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>321</t>
         </is>
       </c>
       <c r="K41" s="31" t="inlineStr">
@@ -2400,70 +2400,70 @@
     <row r="42">
       <c r="A42" s="27" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>建信中证500指数增强A</t>
         </is>
       </c>
       <c r="B42" s="28" t="n">
-        <v>614</v>
+        <v>478</v>
       </c>
       <c r="C42" s="29" t="n">
-        <v>1.0903</v>
+        <v>1.9107</v>
       </c>
       <c r="D42" s="30" t="n">
-        <v>611.75</v>
+        <v>1046.73</v>
       </c>
       <c r="E42" s="30" t="n">
-        <v>744.5</v>
+        <v>2270.99</v>
       </c>
       <c r="F42" s="30" t="n">
-        <v>77.51000000000001</v>
+        <v>271</v>
       </c>
       <c r="G42" s="31" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H42" s="31" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I42" s="31" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J42" s="31" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K42" s="31" t="inlineStr">
         <is>
-          <t>且慢 150 份</t>
+          <t>且慢 S 定投</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="27" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="B43" s="28" t="n">
-        <v>478</v>
+        <v>100032</v>
       </c>
       <c r="C43" s="29" t="n">
-        <v>1.9107</v>
+        <v>1.0954</v>
       </c>
       <c r="D43" s="30" t="n">
-        <v>1046.73</v>
+        <v>1825.9</v>
       </c>
       <c r="E43" s="30" t="n">
-        <v>2272.76</v>
+        <v>2119.87</v>
       </c>
       <c r="F43" s="30" t="n">
-        <v>272.78</v>
+        <v>119.78</v>
       </c>
       <c r="G43" s="31" t="inlineStr">
         <is>
@@ -2472,17 +2472,17 @@
       </c>
       <c r="H43" s="31" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I43" s="31" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J43" s="31" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K43" s="31" t="inlineStr">
@@ -2494,23 +2494,23 @@
     <row r="44">
       <c r="A44" s="27" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>华夏上证50ETF联接A</t>
         </is>
       </c>
       <c r="B44" s="28" t="n">
-        <v>100032</v>
+        <v>1051</v>
       </c>
       <c r="C44" s="29" t="n">
-        <v>1.0954</v>
+        <v>0.9441000000000001</v>
       </c>
       <c r="D44" s="30" t="n">
-        <v>1825.9</v>
+        <v>1059.17</v>
       </c>
       <c r="E44" s="30" t="n">
-        <v>2160.04</v>
+        <v>1090.95</v>
       </c>
       <c r="F44" s="30" t="n">
-        <v>159.95</v>
+        <v>90.98</v>
       </c>
       <c r="G44" s="31" t="inlineStr">
         <is>
@@ -2519,17 +2519,17 @@
       </c>
       <c r="H44" s="31" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I44" s="31" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>上证50</t>
         </is>
       </c>
       <c r="J44" s="31" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K44" s="31" t="inlineStr">
@@ -2541,23 +2541,23 @@
     <row r="45">
       <c r="A45" s="27" t="inlineStr">
         <is>
-          <t>华夏上证50ETF联接A</t>
+          <t>华夏中证500ETF联接A</t>
         </is>
       </c>
       <c r="B45" s="28" t="n">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C45" s="29" t="n">
-        <v>0.9441000000000001</v>
+        <v>0.5517</v>
       </c>
       <c r="D45" s="30" t="n">
-        <v>1059.17</v>
+        <v>1812.7</v>
       </c>
       <c r="E45" s="30" t="n">
-        <v>1115.31</v>
+        <v>1118.44</v>
       </c>
       <c r="F45" s="30" t="n">
-        <v>115.34</v>
+        <v>118.37</v>
       </c>
       <c r="G45" s="31" t="inlineStr">
         <is>
@@ -2566,17 +2566,17 @@
       </c>
       <c r="H45" s="31" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I45" s="31" t="inlineStr">
         <is>
-          <t>上证50</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J45" s="31" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K45" s="31" t="inlineStr">
@@ -2588,23 +2588,23 @@
     <row r="46">
       <c r="A46" s="27" t="inlineStr">
         <is>
-          <t>华夏中证500ETF联接A</t>
+          <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
       <c r="B46" s="28" t="n">
-        <v>1052</v>
+        <v>4752</v>
       </c>
       <c r="C46" s="29" t="n">
-        <v>0.5517</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="D46" s="30" t="n">
-        <v>1812.7</v>
+        <v>1227.03</v>
       </c>
       <c r="E46" s="30" t="n">
-        <v>1114.81</v>
+        <v>1098.68</v>
       </c>
       <c r="F46" s="30" t="n">
-        <v>114.74</v>
+        <v>98.65000000000001</v>
       </c>
       <c r="G46" s="31" t="inlineStr">
         <is>
@@ -2613,17 +2613,17 @@
       </c>
       <c r="H46" s="31" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I46" s="31" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="J46" s="31" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>144</t>
         </is>
       </c>
       <c r="K46" s="31" t="inlineStr">
@@ -2635,42 +2635,42 @@
     <row r="47">
       <c r="A47" s="27" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B47" s="28" t="n">
-        <v>4752</v>
+        <v>164906</v>
       </c>
       <c r="C47" s="29" t="n">
-        <v>0.8149999999999999</v>
+        <v>1.1113</v>
       </c>
       <c r="D47" s="30" t="n">
-        <v>1227.03</v>
+        <v>899.8200000000001</v>
       </c>
       <c r="E47" s="30" t="n">
-        <v>1122.98</v>
+        <v>1319.14</v>
       </c>
       <c r="F47" s="30" t="n">
-        <v>122.95</v>
+        <v>319.17</v>
       </c>
       <c r="G47" s="31" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H47" s="31" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I47" s="31" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J47" s="31" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>221</t>
         </is>
       </c>
       <c r="K47" s="31" t="inlineStr">
@@ -2682,23 +2682,23 @@
     <row r="48">
       <c r="A48" s="27" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B48" s="28" t="n">
-        <v>164906</v>
+        <v>71</v>
       </c>
       <c r="C48" s="29" t="n">
-        <v>1.1113</v>
+        <v>1.4513</v>
       </c>
       <c r="D48" s="30" t="n">
-        <v>899.8200000000001</v>
+        <v>689.02</v>
       </c>
       <c r="E48" s="30" t="n">
-        <v>1312.84</v>
+        <v>1075.7</v>
       </c>
       <c r="F48" s="30" t="n">
-        <v>312.87</v>
+        <v>75.72</v>
       </c>
       <c r="G48" s="31" t="inlineStr">
         <is>
@@ -2707,17 +2707,17 @@
       </c>
       <c r="H48" s="31" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I48" s="31" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="J48" s="31" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>211</t>
         </is>
       </c>
       <c r="K48" s="31" t="inlineStr">
@@ -2729,42 +2729,42 @@
     <row r="49">
       <c r="A49" s="27" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>华安黄金易ETF联接A</t>
         </is>
       </c>
       <c r="B49" s="28" t="n">
-        <v>71</v>
+        <v>216</v>
       </c>
       <c r="C49" s="29" t="n">
-        <v>1.4513</v>
+        <v>1.0902</v>
       </c>
       <c r="D49" s="30" t="n">
-        <v>689.02</v>
+        <v>1834.47</v>
       </c>
       <c r="E49" s="30" t="n">
-        <v>1104.43</v>
+        <v>2320.42</v>
       </c>
       <c r="F49" s="30" t="n">
-        <v>104.46</v>
+        <v>320.48</v>
       </c>
       <c r="G49" s="31" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H49" s="31" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I49" s="31" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>黄金</t>
         </is>
       </c>
       <c r="J49" s="31" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>611</t>
         </is>
       </c>
       <c r="K49" s="31" t="inlineStr">
@@ -2776,23 +2776,23 @@
     <row r="50">
       <c r="A50" s="27" t="inlineStr">
         <is>
-          <t>华安黄金易ETF联接A</t>
+          <t>华宝标普石油指数</t>
         </is>
       </c>
       <c r="B50" s="28" t="n">
-        <v>216</v>
+        <v>162411</v>
       </c>
       <c r="C50" s="29" t="n">
-        <v>1.0902</v>
+        <v>0.4204</v>
       </c>
       <c r="D50" s="30" t="n">
-        <v>1834.47</v>
+        <v>4757.9</v>
       </c>
       <c r="E50" s="30" t="n">
-        <v>2300.79</v>
+        <v>1839.4</v>
       </c>
       <c r="F50" s="30" t="n">
-        <v>300.85</v>
+        <v>-160.82</v>
       </c>
       <c r="G50" s="31" t="inlineStr">
         <is>
@@ -2806,12 +2806,12 @@
       </c>
       <c r="I50" s="31" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="J50" s="31" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>613</t>
         </is>
       </c>
       <c r="K50" s="31" t="inlineStr">
@@ -2823,42 +2823,42 @@
     <row r="51">
       <c r="A51" s="27" t="inlineStr">
         <is>
-          <t>华宝标普石油指数</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B51" s="28" t="n">
-        <v>162411</v>
+        <v>614</v>
       </c>
       <c r="C51" s="29" t="n">
-        <v>0.4204</v>
+        <v>1.0483</v>
       </c>
       <c r="D51" s="30" t="n">
-        <v>4757.9</v>
+        <v>953.96</v>
       </c>
       <c r="E51" s="30" t="n">
-        <v>1893.64</v>
+        <v>1153.34</v>
       </c>
       <c r="F51" s="30" t="n">
-        <v>-106.58</v>
+        <v>153.3</v>
       </c>
       <c r="G51" s="31" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="H51" s="31" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>德国</t>
         </is>
       </c>
       <c r="I51" s="31" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>德国30</t>
         </is>
       </c>
       <c r="J51" s="31" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>321</t>
         </is>
       </c>
       <c r="K51" s="31" t="inlineStr">
@@ -2870,42 +2870,42 @@
     <row r="52">
       <c r="A52" s="27" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>易方达安心债券A</t>
         </is>
       </c>
       <c r="B52" s="28" t="n">
-        <v>614</v>
+        <v>110027</v>
       </c>
       <c r="C52" s="29" t="n">
-        <v>1.0483</v>
+        <v>1.6793</v>
       </c>
       <c r="D52" s="30" t="n">
-        <v>953.96</v>
+        <v>595.47</v>
       </c>
       <c r="E52" s="30" t="n">
-        <v>1160.97</v>
+        <v>1068.27</v>
       </c>
       <c r="F52" s="30" t="n">
-        <v>160.93</v>
+        <v>68.3</v>
       </c>
       <c r="G52" s="31" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H52" s="31" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I52" s="31" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J52" s="31" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K52" s="31" t="inlineStr">
@@ -2915,72 +2915,72 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="27" t="inlineStr">
-        <is>
-          <t>易方达安心债券A</t>
-        </is>
-      </c>
-      <c r="B53" s="28" t="n">
-        <v>110027</v>
-      </c>
-      <c r="C53" s="29" t="n">
-        <v>1.6793</v>
-      </c>
-      <c r="D53" s="30" t="n">
-        <v>595.47</v>
-      </c>
-      <c r="E53" s="30" t="n">
-        <v>1064.1</v>
-      </c>
-      <c r="F53" s="30" t="n">
-        <v>64.13</v>
-      </c>
-      <c r="G53" s="31" t="inlineStr">
-        <is>
-          <t>债券</t>
-        </is>
-      </c>
-      <c r="H53" s="31" t="inlineStr">
-        <is>
-          <t>国内债券</t>
-        </is>
-      </c>
-      <c r="I53" s="31" t="inlineStr">
-        <is>
-          <t>可转债</t>
-        </is>
-      </c>
-      <c r="J53" s="31" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="K53" s="31" t="inlineStr">
-        <is>
-          <t>且慢 S 定投</t>
+      <c r="A53" s="32" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="B53" s="33" t="n">
+        <v>100032</v>
+      </c>
+      <c r="C53" s="34" t="n">
+        <v>1.0193</v>
+      </c>
+      <c r="D53" s="35" t="n">
+        <v>65064.33</v>
+      </c>
+      <c r="E53" s="35" t="n">
+        <v>75539.69</v>
+      </c>
+      <c r="F53" s="35" t="n">
+        <v>9219.620000000001</v>
+      </c>
+      <c r="G53" s="36" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H53" s="36" t="inlineStr">
+        <is>
+          <t>红利价值</t>
+        </is>
+      </c>
+      <c r="I53" s="36" t="inlineStr">
+        <is>
+          <t>中证红利</t>
+        </is>
+      </c>
+      <c r="J53" s="36" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="K53" s="36" t="inlineStr">
+        <is>
+          <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="32" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B54" s="33" t="n">
-        <v>100032</v>
+        <v>968</v>
       </c>
       <c r="C54" s="34" t="n">
-        <v>1.0193</v>
+        <v>0.9167</v>
       </c>
       <c r="D54" s="35" t="n">
-        <v>65064.33</v>
+        <v>63490</v>
       </c>
       <c r="E54" s="35" t="n">
-        <v>76971.10000000001</v>
+        <v>65769.28999999999</v>
       </c>
       <c r="F54" s="35" t="n">
-        <v>10651.03</v>
+        <v>7568.01</v>
       </c>
       <c r="G54" s="36" t="inlineStr">
         <is>
@@ -2989,17 +2989,17 @@
       </c>
       <c r="H54" s="36" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I54" s="36" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J54" s="36" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K54" s="36" t="inlineStr">
@@ -3011,42 +3011,42 @@
     <row r="55">
       <c r="A55" s="32" t="inlineStr">
         <is>
-          <t>广发养老指数A</t>
+          <t>兴全可转债混合</t>
         </is>
       </c>
       <c r="B55" s="33" t="n">
-        <v>968</v>
+        <v>340001</v>
       </c>
       <c r="C55" s="34" t="n">
-        <v>0.9167</v>
+        <v>0.9886</v>
       </c>
       <c r="D55" s="35" t="n">
-        <v>63490</v>
+        <v>32370.29</v>
       </c>
       <c r="E55" s="35" t="n">
-        <v>66918.46000000001</v>
+        <v>40122.97</v>
       </c>
       <c r="F55" s="35" t="n">
-        <v>8717.18</v>
+        <v>8121.71</v>
       </c>
       <c r="G55" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H55" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I55" s="36" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J55" s="36" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K55" s="36" t="inlineStr">
@@ -3058,23 +3058,23 @@
     <row r="56">
       <c r="A56" s="32" t="inlineStr">
         <is>
-          <t>兴全可转债混合</t>
+          <t>易方达安心回报债券A</t>
         </is>
       </c>
       <c r="B56" s="33" t="n">
-        <v>340001</v>
+        <v>110027</v>
       </c>
       <c r="C56" s="34" t="n">
-        <v>0.9886</v>
+        <v>1.5931</v>
       </c>
       <c r="D56" s="35" t="n">
-        <v>32370.29</v>
+        <v>20086.63</v>
       </c>
       <c r="E56" s="35" t="n">
-        <v>40139.16</v>
+        <v>36035.41</v>
       </c>
       <c r="F56" s="35" t="n">
-        <v>8137.89</v>
+        <v>4035.4</v>
       </c>
       <c r="G56" s="36" t="inlineStr">
         <is>
@@ -3105,42 +3105,42 @@
     <row r="57">
       <c r="A57" s="32" t="inlineStr">
         <is>
-          <t>易方达安心回报债券A</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B57" s="33" t="n">
-        <v>110027</v>
+        <v>1180</v>
       </c>
       <c r="C57" s="34" t="n">
-        <v>1.5931</v>
+        <v>0.7451</v>
       </c>
       <c r="D57" s="35" t="n">
-        <v>20086.63</v>
+        <v>41014.88</v>
       </c>
       <c r="E57" s="35" t="n">
-        <v>35894.81</v>
+        <v>37540.92</v>
       </c>
       <c r="F57" s="35" t="n">
-        <v>3894.8</v>
+        <v>6980.73</v>
       </c>
       <c r="G57" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H57" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I57" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J57" s="36" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K57" s="36" t="inlineStr">
@@ -3152,42 +3152,42 @@
     <row r="58">
       <c r="A58" s="32" t="inlineStr">
         <is>
-          <t>广发医药卫生联接A</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B58" s="33" t="n">
-        <v>1180</v>
+        <v>614</v>
       </c>
       <c r="C58" s="34" t="n">
-        <v>0.7451</v>
+        <v>1.091</v>
       </c>
       <c r="D58" s="35" t="n">
-        <v>41014.88</v>
+        <v>20716.63</v>
       </c>
       <c r="E58" s="35" t="n">
-        <v>36548.36</v>
+        <v>25046.41</v>
       </c>
       <c r="F58" s="35" t="n">
-        <v>5988.17</v>
+        <v>2444.56</v>
       </c>
       <c r="G58" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="H58" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>德国</t>
         </is>
       </c>
       <c r="I58" s="36" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>德国30</t>
         </is>
       </c>
       <c r="J58" s="36" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>321</t>
         </is>
       </c>
       <c r="K58" s="36" t="inlineStr">
@@ -3199,42 +3199,42 @@
     <row r="59">
       <c r="A59" s="32" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>富国沪深300指数增强</t>
         </is>
       </c>
       <c r="B59" s="33" t="n">
-        <v>614</v>
+        <v>100038</v>
       </c>
       <c r="C59" s="34" t="n">
-        <v>1.091</v>
+        <v>1.3129</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>20716.63</v>
+        <v>14624.61</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>25212.14</v>
+        <v>25154.33</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2610.3</v>
+        <v>5953.68</v>
       </c>
       <c r="G59" s="36" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H59" s="36" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I59" s="36" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="J59" s="36" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K59" s="36" t="inlineStr">
@@ -3246,23 +3246,23 @@
     <row r="60">
       <c r="A60" s="32" t="inlineStr">
         <is>
-          <t>富国沪深300指数增强</t>
+          <t>广发中证全指金融地产联接A</t>
         </is>
       </c>
       <c r="B60" s="33" t="n">
-        <v>100038</v>
+        <v>1469</v>
       </c>
       <c r="C60" s="34" t="n">
-        <v>1.3129</v>
+        <v>0.9073</v>
       </c>
       <c r="D60" s="35" t="n">
-        <v>14624.61</v>
+        <v>21163.93</v>
       </c>
       <c r="E60" s="35" t="n">
-        <v>25490.7</v>
+        <v>24008.36</v>
       </c>
       <c r="F60" s="35" t="n">
-        <v>6290.04</v>
+        <v>4806.33</v>
       </c>
       <c r="G60" s="36" t="inlineStr">
         <is>
@@ -3271,17 +3271,17 @@
       </c>
       <c r="H60" s="36" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I60" s="36" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>金融地产</t>
         </is>
       </c>
       <c r="J60" s="36" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>147</t>
         </is>
       </c>
       <c r="K60" s="36" t="inlineStr">
@@ -3293,42 +3293,42 @@
     <row r="61">
       <c r="A61" s="32" t="inlineStr">
         <is>
-          <t>广发中证全指金融地产联接A</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B61" s="33" t="n">
-        <v>1469</v>
+        <v>164906</v>
       </c>
       <c r="C61" s="34" t="n">
-        <v>0.9073</v>
+        <v>1.1444</v>
       </c>
       <c r="D61" s="35" t="n">
-        <v>21163.93</v>
+        <v>16778.47</v>
       </c>
       <c r="E61" s="35" t="n">
-        <v>24605.19</v>
+        <v>24597.24</v>
       </c>
       <c r="F61" s="35" t="n">
-        <v>5403.15</v>
+        <v>5395.96</v>
       </c>
       <c r="G61" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H61" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I61" s="36" t="inlineStr">
         <is>
-          <t>金融地产</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J61" s="36" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>221</t>
         </is>
       </c>
       <c r="K61" s="36" t="inlineStr">
@@ -3340,42 +3340,42 @@
     <row r="62">
       <c r="A62" s="32" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>富国中证500指数(LOF)</t>
         </is>
       </c>
       <c r="B62" s="33" t="n">
-        <v>164906</v>
+        <v>161017</v>
       </c>
       <c r="C62" s="34" t="n">
-        <v>1.1444</v>
+        <v>1.3432</v>
       </c>
       <c r="D62" s="35" t="n">
-        <v>16778.47</v>
+        <v>9529.809999999999</v>
       </c>
       <c r="E62" s="35" t="n">
-        <v>24479.79</v>
+        <v>17306.13</v>
       </c>
       <c r="F62" s="35" t="n">
-        <v>5278.51</v>
+        <v>4505.69</v>
       </c>
       <c r="G62" s="36" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H62" s="36" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I62" s="36" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J62" s="36" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K62" s="36" t="inlineStr">
@@ -3387,42 +3387,42 @@
     <row r="63">
       <c r="A63" s="32" t="inlineStr">
         <is>
-          <t>富国中证500指数(LOF)</t>
+          <t>华宝标普油气上游股票</t>
         </is>
       </c>
       <c r="B63" s="33" t="n">
-        <v>161017</v>
+        <v>162411</v>
       </c>
       <c r="C63" s="34" t="n">
-        <v>1.3432</v>
+        <v>0.5152</v>
       </c>
       <c r="D63" s="35" t="n">
-        <v>9529.809999999999</v>
+        <v>37267.45</v>
       </c>
       <c r="E63" s="35" t="n">
-        <v>17134.6</v>
+        <v>14407.6</v>
       </c>
       <c r="F63" s="35" t="n">
-        <v>4334.16</v>
+        <v>-4792.59</v>
       </c>
       <c r="G63" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H63" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I63" s="36" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="J63" s="36" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>613</t>
         </is>
       </c>
       <c r="K63" s="36" t="inlineStr">
@@ -3434,42 +3434,42 @@
     <row r="64">
       <c r="A64" s="32" t="inlineStr">
         <is>
-          <t>华宝标普油气上游股票</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B64" s="33" t="n">
-        <v>162411</v>
+        <v>71</v>
       </c>
       <c r="C64" s="34" t="n">
-        <v>0.5152</v>
+        <v>1.4562</v>
       </c>
       <c r="D64" s="35" t="n">
-        <v>37267.45</v>
+        <v>6798.52</v>
       </c>
       <c r="E64" s="35" t="n">
-        <v>14832.45</v>
+        <v>10613.85</v>
       </c>
       <c r="F64" s="35" t="n">
-        <v>-4367.75</v>
+        <v>713.84</v>
       </c>
       <c r="G64" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H64" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I64" s="36" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="J64" s="36" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>211</t>
         </is>
       </c>
       <c r="K64" s="36" t="inlineStr">
@@ -3481,42 +3481,42 @@
     <row r="65">
       <c r="A65" s="32" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B65" s="33" t="n">
-        <v>71</v>
+        <v>1064</v>
       </c>
       <c r="C65" s="34" t="n">
-        <v>1.4562</v>
+        <v>0.4775</v>
       </c>
       <c r="D65" s="35" t="n">
-        <v>6798.52</v>
+        <v>13403.92</v>
       </c>
       <c r="E65" s="35" t="n">
-        <v>10897.35</v>
+        <v>8534.280000000001</v>
       </c>
       <c r="F65" s="35" t="n">
-        <v>997.34</v>
+        <v>2133.9</v>
       </c>
       <c r="G65" s="36" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H65" s="36" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I65" s="36" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="J65" s="36" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K65" s="36" t="inlineStr">
@@ -3528,42 +3528,42 @@
     <row r="66">
       <c r="A66" s="32" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>长信可转债债券A</t>
         </is>
       </c>
       <c r="B66" s="33" t="n">
-        <v>1064</v>
+        <v>519977</v>
       </c>
       <c r="C66" s="34" t="n">
-        <v>0.4775</v>
+        <v>1.2011</v>
       </c>
       <c r="D66" s="35" t="n">
-        <v>13403.92</v>
+        <v>5328.62</v>
       </c>
       <c r="E66" s="35" t="n">
-        <v>8453.85</v>
+        <v>7847.46</v>
       </c>
       <c r="F66" s="35" t="n">
-        <v>2053.48</v>
+        <v>1447.25</v>
       </c>
       <c r="G66" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H66" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I66" s="36" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J66" s="36" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K66" s="36" t="inlineStr">
@@ -3575,23 +3575,23 @@
     <row r="67">
       <c r="A67" s="32" t="inlineStr">
         <is>
-          <t>长信可转债债券A</t>
+          <t>华夏收益债券(QDII)A</t>
         </is>
       </c>
       <c r="B67" s="33" t="n">
-        <v>519977</v>
+        <v>1061</v>
       </c>
       <c r="C67" s="34" t="n">
-        <v>1.2011</v>
+        <v>0.9172</v>
       </c>
       <c r="D67" s="35" t="n">
-        <v>5328.62</v>
+        <v>5609.79</v>
       </c>
       <c r="E67" s="35" t="n">
-        <v>7797.9</v>
+        <v>7640.53</v>
       </c>
       <c r="F67" s="35" t="n">
-        <v>1397.7</v>
+        <v>2495.23</v>
       </c>
       <c r="G67" s="36" t="inlineStr">
         <is>
@@ -3600,17 +3600,17 @@
       </c>
       <c r="H67" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>海外债券</t>
         </is>
       </c>
       <c r="I67" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>美元债</t>
         </is>
       </c>
       <c r="J67" s="36" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>521</t>
         </is>
       </c>
       <c r="K67" s="36" t="inlineStr">
@@ -3622,42 +3622,42 @@
     <row r="68">
       <c r="A68" s="32" t="inlineStr">
         <is>
-          <t>华夏收益债券(QDII)A</t>
+          <t>广发中证500ETF联接C</t>
         </is>
       </c>
       <c r="B68" s="33" t="n">
-        <v>1061</v>
+        <v>2903</v>
       </c>
       <c r="C68" s="34" t="n">
-        <v>0.9172</v>
+        <v>0.9</v>
       </c>
       <c r="D68" s="35" t="n">
-        <v>5609.79</v>
+        <v>3889.32</v>
       </c>
       <c r="E68" s="35" t="n">
-        <v>7651.75</v>
+        <v>3763.69</v>
       </c>
       <c r="F68" s="35" t="n">
-        <v>2506.45</v>
+        <v>263.31</v>
       </c>
       <c r="G68" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H68" s="36" t="inlineStr">
         <is>
-          <t>海外债券</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I68" s="36" t="inlineStr">
         <is>
-          <t>美元债</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J68" s="36" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K68" s="36" t="inlineStr">
@@ -3669,23 +3669,23 @@
     <row r="69">
       <c r="A69" s="32" t="inlineStr">
         <is>
-          <t>广发中证500ETF联接C</t>
+          <t>建信中证500指数增强A</t>
         </is>
       </c>
       <c r="B69" s="33" t="n">
-        <v>2903</v>
+        <v>478</v>
       </c>
       <c r="C69" s="34" t="n">
-        <v>0.9</v>
+        <v>1.9397</v>
       </c>
       <c r="D69" s="35" t="n">
-        <v>3889.32</v>
+        <v>3299.64</v>
       </c>
       <c r="E69" s="35" t="n">
-        <v>3753.58</v>
+        <v>7158.9</v>
       </c>
       <c r="F69" s="35" t="n">
-        <v>253.19</v>
+        <v>758.59</v>
       </c>
       <c r="G69" s="36" t="inlineStr">
         <is>
@@ -3716,23 +3716,23 @@
     <row r="70">
       <c r="A70" s="32" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
       <c r="B70" s="33" t="n">
-        <v>478</v>
+        <v>4752</v>
       </c>
       <c r="C70" s="34" t="n">
-        <v>1.9397</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="D70" s="35" t="n">
-        <v>3299.64</v>
+        <v>7852.99</v>
       </c>
       <c r="E70" s="35" t="n">
-        <v>7164.51</v>
+        <v>7031.57</v>
       </c>
       <c r="F70" s="35" t="n">
-        <v>764.2</v>
+        <v>631.38</v>
       </c>
       <c r="G70" s="36" t="inlineStr">
         <is>
@@ -3741,17 +3741,17 @@
       </c>
       <c r="H70" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I70" s="36" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="J70" s="36" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>144</t>
         </is>
       </c>
       <c r="K70" s="36" t="inlineStr">
@@ -3761,119 +3761,119 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="32" t="inlineStr">
-        <is>
-          <t>广发中证传媒ETF联接A</t>
-        </is>
-      </c>
-      <c r="B71" s="33" t="n">
-        <v>4752</v>
-      </c>
-      <c r="C71" s="34" t="n">
-        <v>0.8149999999999999</v>
-      </c>
-      <c r="D71" s="35" t="n">
-        <v>7852.99</v>
-      </c>
-      <c r="E71" s="35" t="n">
-        <v>7187.06</v>
-      </c>
-      <c r="F71" s="35" t="n">
-        <v>786.87</v>
-      </c>
-      <c r="G71" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H71" s="36" t="inlineStr">
-        <is>
-          <t>行业股</t>
-        </is>
-      </c>
-      <c r="I71" s="36" t="inlineStr">
-        <is>
-          <t>中证传媒</t>
-        </is>
-      </c>
-      <c r="J71" s="36" t="inlineStr">
-        <is>
-          <t>144</t>
-        </is>
-      </c>
-      <c r="K71" s="36" t="inlineStr">
-        <is>
-          <t>天天基金</t>
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>货币基金综合</t>
+        </is>
+      </c>
+      <c r="B71" s="3" t="n">
+        <v>999999</v>
+      </c>
+      <c r="C71" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" s="5" t="n">
+        <v>12039.85</v>
+      </c>
+      <c r="E71" s="5" t="n">
+        <v>12039.85</v>
+      </c>
+      <c r="F71" s="5" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="G71" s="6" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="H71" s="6" t="inlineStr">
+        <is>
+          <t>低风险理财</t>
+        </is>
+      </c>
+      <c r="I71" s="6" t="inlineStr">
+        <is>
+          <t>货币基金</t>
+        </is>
+      </c>
+      <c r="J71" s="6" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="K71" s="6" t="inlineStr">
+        <is>
+          <t>现金账户父母</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="inlineStr">
-        <is>
-          <t>货币基金综合</t>
-        </is>
-      </c>
-      <c r="B72" s="3" t="n">
-        <v>999999</v>
-      </c>
-      <c r="C72" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D72" s="5" t="n">
-        <v>10216.69</v>
-      </c>
-      <c r="E72" s="5" t="n">
-        <v>10216.69</v>
-      </c>
-      <c r="F72" s="5" t="n">
-        <v>16.69</v>
-      </c>
-      <c r="G72" s="6" t="inlineStr">
-        <is>
-          <t>现金</t>
-        </is>
-      </c>
-      <c r="H72" s="6" t="inlineStr">
-        <is>
-          <t>低风险理财</t>
-        </is>
-      </c>
-      <c r="I72" s="6" t="inlineStr">
-        <is>
-          <t>货币基金</t>
-        </is>
-      </c>
-      <c r="J72" s="6" t="inlineStr">
-        <is>
-          <t>999</t>
-        </is>
-      </c>
-      <c r="K72" s="6" t="inlineStr">
-        <is>
-          <t>现金账户父母</t>
+      <c r="A72" s="7" t="inlineStr">
+        <is>
+          <t>银河沪深300价值指数</t>
+        </is>
+      </c>
+      <c r="B72" s="8" t="n">
+        <v>519671</v>
+      </c>
+      <c r="C72" s="9" t="n">
+        <v>1.4337</v>
+      </c>
+      <c r="D72" s="10" t="n">
+        <v>1154.83</v>
+      </c>
+      <c r="E72" s="10" t="n">
+        <v>1701.06</v>
+      </c>
+      <c r="F72" s="10" t="n">
+        <v>45.38</v>
+      </c>
+      <c r="G72" s="11" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H72" s="11" t="inlineStr">
+        <is>
+          <t>大盘股</t>
+        </is>
+      </c>
+      <c r="I72" s="11" t="inlineStr">
+        <is>
+          <t>300价值</t>
+        </is>
+      </c>
+      <c r="J72" s="11" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="K72" s="11" t="inlineStr">
+        <is>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="7" t="inlineStr">
         <is>
-          <t>银河沪深300价值指数</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B73" s="8" t="n">
-        <v>519671</v>
+        <v>90010</v>
       </c>
       <c r="C73" s="9" t="n">
-        <v>1.4318</v>
+        <v>1.6567</v>
       </c>
       <c r="D73" s="10" t="n">
-        <v>1128.52</v>
+        <v>989.22</v>
       </c>
       <c r="E73" s="10" t="n">
-        <v>1709.71</v>
+        <v>1672.77</v>
       </c>
       <c r="F73" s="10" t="n">
-        <v>93.89</v>
+        <v>33.93</v>
       </c>
       <c r="G73" s="11" t="inlineStr">
         <is>
@@ -3882,17 +3882,17 @@
       </c>
       <c r="H73" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I73" s="11" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J73" s="11" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K73" s="11" t="inlineStr">
@@ -3904,23 +3904,23 @@
     <row r="74">
       <c r="A74" s="7" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>景顺长城中证500低波动</t>
         </is>
       </c>
       <c r="B74" s="8" t="n">
-        <v>90010</v>
+        <v>3318</v>
       </c>
       <c r="C74" s="9" t="n">
-        <v>1.6549</v>
+        <v>0.9373</v>
       </c>
       <c r="D74" s="10" t="n">
-        <v>965.5700000000001</v>
+        <v>1513.25</v>
       </c>
       <c r="E74" s="10" t="n">
-        <v>1666.57</v>
+        <v>1509.32</v>
       </c>
       <c r="F74" s="10" t="n">
-        <v>68.65000000000001</v>
+        <v>90.95</v>
       </c>
       <c r="G74" s="11" t="inlineStr">
         <is>
@@ -3929,17 +3929,17 @@
       </c>
       <c r="H74" s="11" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I74" s="11" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>500低波动</t>
         </is>
       </c>
       <c r="J74" s="11" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>122</t>
         </is>
       </c>
       <c r="K74" s="11" t="inlineStr">
@@ -3951,42 +3951,42 @@
     <row r="75">
       <c r="A75" s="7" t="inlineStr">
         <is>
-          <t>景顺长城中证500低波动</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B75" s="8" t="n">
-        <v>3318</v>
+        <v>501021</v>
       </c>
       <c r="C75" s="9" t="n">
-        <v>0.9358</v>
+        <v>1.3485</v>
       </c>
       <c r="D75" s="10" t="n">
-        <v>1478.24</v>
+        <v>898.04</v>
       </c>
       <c r="E75" s="10" t="n">
-        <v>1478.68</v>
+        <v>1380.83</v>
       </c>
       <c r="F75" s="10" t="n">
-        <v>95.34999999999999</v>
+        <v>169.82</v>
       </c>
       <c r="G75" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H75" s="11" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I75" s="11" t="inlineStr">
         <is>
-          <t>500低波动</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="J75" s="11" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>213</t>
         </is>
       </c>
       <c r="K75" s="11" t="inlineStr">
@@ -3998,42 +3998,42 @@
     <row r="76">
       <c r="A76" s="7" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>嘉实深证基本面120联接</t>
         </is>
       </c>
       <c r="B76" s="8" t="n">
-        <v>501021</v>
+        <v>70023</v>
       </c>
       <c r="C76" s="9" t="n">
-        <v>1.3485</v>
+        <v>1.7966</v>
       </c>
       <c r="D76" s="10" t="n">
-        <v>898.04</v>
+        <v>492.58</v>
       </c>
       <c r="E76" s="10" t="n">
-        <v>1393.4</v>
+        <v>995.36</v>
       </c>
       <c r="F76" s="10" t="n">
-        <v>182.39</v>
+        <v>110.39</v>
       </c>
       <c r="G76" s="11" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H76" s="11" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I76" s="11" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>基本面120</t>
         </is>
       </c>
       <c r="J76" s="11" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>116</t>
         </is>
       </c>
       <c r="K76" s="11" t="inlineStr">
@@ -4045,23 +4045,23 @@
     <row r="77">
       <c r="A77" s="7" t="inlineStr">
         <is>
-          <t>嘉实深证基本面120联接</t>
+          <t>建信深证基本面60ETF联接A</t>
         </is>
       </c>
       <c r="B77" s="8" t="n">
-        <v>70023</v>
+        <v>530015</v>
       </c>
       <c r="C77" s="9" t="n">
-        <v>1.7966</v>
+        <v>2.1277</v>
       </c>
       <c r="D77" s="10" t="n">
-        <v>492.58</v>
+        <v>421.99</v>
       </c>
       <c r="E77" s="10" t="n">
-        <v>1017.52</v>
+        <v>987.46</v>
       </c>
       <c r="F77" s="10" t="n">
-        <v>132.55</v>
+        <v>89.59</v>
       </c>
       <c r="G77" s="11" t="inlineStr">
         <is>
@@ -4075,12 +4075,12 @@
       </c>
       <c r="I77" s="11" t="inlineStr">
         <is>
-          <t>基本面120</t>
+          <t>基本面60</t>
         </is>
       </c>
       <c r="J77" s="11" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>115</t>
         </is>
       </c>
       <c r="K77" s="11" t="inlineStr">
@@ -4092,23 +4092,23 @@
     <row r="78">
       <c r="A78" s="7" t="inlineStr">
         <is>
-          <t>建信深证基本面60ETF联接A</t>
+          <t>广发中证养老</t>
         </is>
       </c>
       <c r="B78" s="8" t="n">
-        <v>530015</v>
+        <v>968</v>
       </c>
       <c r="C78" s="9" t="n">
-        <v>2.1277</v>
+        <v>0.9599</v>
       </c>
       <c r="D78" s="10" t="n">
-        <v>421.99</v>
+        <v>390.82</v>
       </c>
       <c r="E78" s="10" t="n">
-        <v>1014.89</v>
+        <v>404.85</v>
       </c>
       <c r="F78" s="10" t="n">
-        <v>117.02</v>
+        <v>29.7</v>
       </c>
       <c r="G78" s="11" t="inlineStr">
         <is>
@@ -4117,17 +4117,17 @@
       </c>
       <c r="H78" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I78" s="11" t="inlineStr">
         <is>
-          <t>基本面60</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J78" s="11" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K78" s="11" t="inlineStr">
@@ -4139,23 +4139,23 @@
     <row r="79">
       <c r="A79" s="7" t="inlineStr">
         <is>
-          <t>广发中证养老</t>
+          <t>华宝红利基金</t>
         </is>
       </c>
       <c r="B79" s="8" t="n">
-        <v>968</v>
+        <v>501029</v>
       </c>
       <c r="C79" s="9" t="n">
-        <v>0.9599</v>
+        <v>0.9829</v>
       </c>
       <c r="D79" s="10" t="n">
-        <v>390.82</v>
+        <v>214.89</v>
       </c>
       <c r="E79" s="10" t="n">
-        <v>411.92</v>
+        <v>217.62</v>
       </c>
       <c r="F79" s="10" t="n">
-        <v>36.78</v>
+        <v>6.4</v>
       </c>
       <c r="G79" s="11" t="inlineStr">
         <is>
@@ -4164,17 +4164,17 @@
       </c>
       <c r="H79" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I79" s="11" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>标普红利</t>
         </is>
       </c>
       <c r="J79" s="11" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>132</t>
         </is>
       </c>
       <c r="K79" s="11" t="inlineStr">
@@ -4186,23 +4186,23 @@
     <row r="80">
       <c r="A80" s="7" t="inlineStr">
         <is>
-          <t>华宝红利基金</t>
+          <t>天弘中证医药100A</t>
         </is>
       </c>
       <c r="B80" s="8" t="n">
-        <v>501029</v>
+        <v>1550</v>
       </c>
       <c r="C80" s="9" t="n">
-        <v>0.9829</v>
+        <v>0.6708</v>
       </c>
       <c r="D80" s="10" t="n">
-        <v>214.89</v>
+        <v>212.74</v>
       </c>
       <c r="E80" s="10" t="n">
-        <v>222.35</v>
+        <v>182.42</v>
       </c>
       <c r="F80" s="10" t="n">
-        <v>11.13</v>
+        <v>39.72</v>
       </c>
       <c r="G80" s="11" t="inlineStr">
         <is>
@@ -4211,17 +4211,17 @@
       </c>
       <c r="H80" s="11" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I80" s="11" t="inlineStr">
         <is>
-          <t>标普红利</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J80" s="11" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K80" s="11" t="inlineStr">
@@ -4233,23 +4233,23 @@
     <row r="81">
       <c r="A81" s="7" t="inlineStr">
         <is>
-          <t>天弘中证医药100A</t>
+          <t>天弘中证银行指数A</t>
         </is>
       </c>
       <c r="B81" s="8" t="n">
-        <v>1550</v>
+        <v>1594</v>
       </c>
       <c r="C81" s="9" t="n">
-        <v>0.6708</v>
+        <v>1.2585</v>
       </c>
       <c r="D81" s="10" t="n">
-        <v>212.74</v>
+        <v>139.58</v>
       </c>
       <c r="E81" s="10" t="n">
-        <v>175.06</v>
+        <v>171.86</v>
       </c>
       <c r="F81" s="10" t="n">
-        <v>32.36</v>
+        <v>-3.8</v>
       </c>
       <c r="G81" s="11" t="inlineStr">
         <is>
@@ -4263,12 +4263,12 @@
       </c>
       <c r="I81" s="11" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>中证银行</t>
         </is>
       </c>
       <c r="J81" s="11" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>146</t>
         </is>
       </c>
       <c r="K81" s="11" t="inlineStr">
@@ -4280,23 +4280,23 @@
     <row r="82">
       <c r="A82" s="7" t="inlineStr">
         <is>
-          <t>天弘中证银行指数A</t>
+          <t>华夏上证50AH优选指数</t>
         </is>
       </c>
       <c r="B82" s="8" t="n">
-        <v>1594</v>
+        <v>501050</v>
       </c>
       <c r="C82" s="9" t="n">
-        <v>1.2568</v>
+        <v>1.2891</v>
       </c>
       <c r="D82" s="10" t="n">
-        <v>109.5</v>
+        <v>62.09</v>
       </c>
       <c r="E82" s="10" t="n">
-        <v>138.65</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="F82" s="10" t="n">
-        <v>1.03</v>
+        <v>3.53</v>
       </c>
       <c r="G82" s="11" t="inlineStr">
         <is>
@@ -4305,17 +4305,17 @@
       </c>
       <c r="H82" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I82" s="11" t="inlineStr">
         <is>
-          <t>中证银行</t>
+          <t>50AH</t>
         </is>
       </c>
       <c r="J82" s="11" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>112</t>
         </is>
       </c>
       <c r="K82" s="11" t="inlineStr">
@@ -4327,23 +4327,23 @@
     <row r="83">
       <c r="A83" s="7" t="inlineStr">
         <is>
-          <t>华夏上证50AH优选指数</t>
+          <t>申万菱信沪深300价值指数</t>
         </is>
       </c>
       <c r="B83" s="8" t="n">
-        <v>501050</v>
+        <v>310398</v>
       </c>
       <c r="C83" s="9" t="n">
-        <v>1.2891</v>
+        <v>1.4372</v>
       </c>
       <c r="D83" s="10" t="n">
-        <v>62.09</v>
+        <v>25.8</v>
       </c>
       <c r="E83" s="10" t="n">
-        <v>86.68000000000001</v>
+        <v>35.9</v>
       </c>
       <c r="F83" s="10" t="n">
-        <v>6.64</v>
+        <v>-1.18</v>
       </c>
       <c r="G83" s="11" t="inlineStr">
         <is>
@@ -4357,12 +4357,12 @@
       </c>
       <c r="I83" s="11" t="inlineStr">
         <is>
-          <t>50AH</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="J83" s="11" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K83" s="11" t="inlineStr">
@@ -4374,42 +4374,42 @@
     <row r="84">
       <c r="A84" s="7" t="inlineStr">
         <is>
-          <t>申万菱信沪深300价值指数</t>
+          <t>大成景安短融债券E</t>
         </is>
       </c>
       <c r="B84" s="8" t="n">
-        <v>310398</v>
+        <v>2086</v>
       </c>
       <c r="C84" s="9" t="n">
-        <v>1.4372</v>
+        <v>1.2258</v>
       </c>
       <c r="D84" s="10" t="n">
-        <v>25.8</v>
+        <v>0</v>
       </c>
       <c r="E84" s="10" t="n">
-        <v>36.9</v>
+        <v>0</v>
       </c>
       <c r="F84" s="10" t="n">
-        <v>-0.18</v>
+        <v>0</v>
       </c>
       <c r="G84" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>现金</t>
         </is>
       </c>
       <c r="H84" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>低风险理财</t>
         </is>
       </c>
       <c r="I84" s="11" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>货币基金</t>
         </is>
       </c>
       <c r="J84" s="11" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>999</t>
         </is>
       </c>
       <c r="K84" s="11" t="inlineStr">
@@ -4421,70 +4421,70 @@
     <row r="85">
       <c r="A85" s="7" t="inlineStr">
         <is>
-          <t>大成景安短融债券E</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B85" s="8" t="n">
-        <v>2086</v>
+        <v>90010</v>
       </c>
       <c r="C85" s="9" t="n">
-        <v>1.2258</v>
+        <v>1.6601</v>
       </c>
       <c r="D85" s="10" t="n">
-        <v>0</v>
+        <v>1104.19</v>
       </c>
       <c r="E85" s="10" t="n">
-        <v>0</v>
+        <v>1867.19</v>
       </c>
       <c r="F85" s="10" t="n">
-        <v>0</v>
+        <v>34.12</v>
       </c>
       <c r="G85" s="11" t="inlineStr">
         <is>
-          <t>现金</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H85" s="11" t="inlineStr">
         <is>
-          <t>低风险理财</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I85" s="11" t="inlineStr">
         <is>
-          <t>货币基金</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J85" s="11" t="inlineStr">
         <is>
-          <t>999</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K85" s="11" t="inlineStr">
         <is>
-          <t>螺丝钉父</t>
+          <t>螺丝钉母</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="7" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>银河沪深300价值指数</t>
         </is>
       </c>
       <c r="B86" s="8" t="n">
-        <v>90010</v>
+        <v>519671</v>
       </c>
       <c r="C86" s="9" t="n">
-        <v>1.6586</v>
+        <v>1.4337</v>
       </c>
       <c r="D86" s="10" t="n">
-        <v>1080.54</v>
+        <v>1197.41</v>
       </c>
       <c r="E86" s="10" t="n">
-        <v>1865.01</v>
+        <v>1763.78</v>
       </c>
       <c r="F86" s="10" t="n">
-        <v>72.83</v>
+        <v>47.06</v>
       </c>
       <c r="G86" s="11" t="inlineStr">
         <is>
@@ -4493,17 +4493,17 @@
       </c>
       <c r="H86" s="11" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I86" s="11" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="J86" s="11" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K86" s="11" t="inlineStr">
@@ -4515,23 +4515,23 @@
     <row r="87">
       <c r="A87" s="7" t="inlineStr">
         <is>
-          <t>银河沪深300价值指数</t>
+          <t>景顺长城中证500低波动</t>
         </is>
       </c>
       <c r="B87" s="8" t="n">
-        <v>519671</v>
+        <v>3318</v>
       </c>
       <c r="C87" s="9" t="n">
-        <v>1.4318</v>
+        <v>0.9381</v>
       </c>
       <c r="D87" s="10" t="n">
-        <v>1171.1</v>
+        <v>1612.93</v>
       </c>
       <c r="E87" s="10" t="n">
-        <v>1774.22</v>
+        <v>1608.74</v>
       </c>
       <c r="F87" s="10" t="n">
-        <v>97.44</v>
+        <v>95.65000000000001</v>
       </c>
       <c r="G87" s="11" t="inlineStr">
         <is>
@@ -4540,17 +4540,17 @@
       </c>
       <c r="H87" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I87" s="11" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>500低波动</t>
         </is>
       </c>
       <c r="J87" s="11" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>122</t>
         </is>
       </c>
       <c r="K87" s="11" t="inlineStr">
@@ -4562,42 +4562,42 @@
     <row r="88">
       <c r="A88" s="7" t="inlineStr">
         <is>
-          <t>景顺长城中证500低波动</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B88" s="8" t="n">
-        <v>3318</v>
+        <v>501021</v>
       </c>
       <c r="C88" s="9" t="n">
-        <v>0.9368</v>
+        <v>1.3514</v>
       </c>
       <c r="D88" s="10" t="n">
-        <v>1577.92</v>
+        <v>915.97</v>
       </c>
       <c r="E88" s="10" t="n">
-        <v>1578.39</v>
+        <v>1408.4</v>
       </c>
       <c r="F88" s="10" t="n">
-        <v>100.2</v>
+        <v>170.55</v>
       </c>
       <c r="G88" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H88" s="11" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I88" s="11" t="inlineStr">
         <is>
-          <t>500低波动</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="J88" s="11" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>213</t>
         </is>
       </c>
       <c r="K88" s="11" t="inlineStr">
@@ -4609,42 +4609,42 @@
     <row r="89">
       <c r="A89" s="7" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>嘉实深证基本面120联接</t>
         </is>
       </c>
       <c r="B89" s="8" t="n">
-        <v>501021</v>
+        <v>70023</v>
       </c>
       <c r="C89" s="9" t="n">
-        <v>1.3514</v>
+        <v>1.7992</v>
       </c>
       <c r="D89" s="10" t="n">
-        <v>915.97</v>
+        <v>528.99</v>
       </c>
       <c r="E89" s="10" t="n">
-        <v>1421.22</v>
+        <v>1068.93</v>
       </c>
       <c r="F89" s="10" t="n">
-        <v>183.38</v>
+        <v>117.17</v>
       </c>
       <c r="G89" s="11" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H89" s="11" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I89" s="11" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>基本面120</t>
         </is>
       </c>
       <c r="J89" s="11" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>116</t>
         </is>
       </c>
       <c r="K89" s="11" t="inlineStr">
@@ -4656,23 +4656,23 @@
     <row r="90">
       <c r="A90" s="7" t="inlineStr">
         <is>
-          <t>嘉实深证基本面120联接</t>
+          <t>建信深证基本面60ETF联接A</t>
         </is>
       </c>
       <c r="B90" s="8" t="n">
-        <v>70023</v>
+        <v>530015</v>
       </c>
       <c r="C90" s="9" t="n">
-        <v>1.7992</v>
+        <v>2.142</v>
       </c>
       <c r="D90" s="10" t="n">
-        <v>528.99</v>
+        <v>451.58</v>
       </c>
       <c r="E90" s="10" t="n">
-        <v>1092.73</v>
+        <v>1056.7</v>
       </c>
       <c r="F90" s="10" t="n">
-        <v>140.98</v>
+        <v>89.41</v>
       </c>
       <c r="G90" s="11" t="inlineStr">
         <is>
@@ -4686,12 +4686,12 @@
       </c>
       <c r="I90" s="11" t="inlineStr">
         <is>
-          <t>基本面120</t>
+          <t>基本面60</t>
         </is>
       </c>
       <c r="J90" s="11" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>115</t>
         </is>
       </c>
       <c r="K90" s="11" t="inlineStr">
@@ -4703,23 +4703,23 @@
     <row r="91">
       <c r="A91" s="7" t="inlineStr">
         <is>
-          <t>建信深证基本面60ETF联接A</t>
+          <t>广发中证养老</t>
         </is>
       </c>
       <c r="B91" s="8" t="n">
-        <v>530015</v>
+        <v>968</v>
       </c>
       <c r="C91" s="9" t="n">
-        <v>2.142</v>
+        <v>0.9588</v>
       </c>
       <c r="D91" s="10" t="n">
-        <v>451.58</v>
+        <v>426.97</v>
       </c>
       <c r="E91" s="10" t="n">
-        <v>1086.05</v>
+        <v>442.3</v>
       </c>
       <c r="F91" s="10" t="n">
-        <v>118.77</v>
+        <v>32.92</v>
       </c>
       <c r="G91" s="11" t="inlineStr">
         <is>
@@ -4728,17 +4728,17 @@
       </c>
       <c r="H91" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I91" s="11" t="inlineStr">
         <is>
-          <t>基本面60</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J91" s="11" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K91" s="11" t="inlineStr">
@@ -4750,23 +4750,23 @@
     <row r="92">
       <c r="A92" s="7" t="inlineStr">
         <is>
-          <t>广发中证养老</t>
+          <t>天弘中证银行指数A</t>
         </is>
       </c>
       <c r="B92" s="8" t="n">
-        <v>968</v>
+        <v>1594</v>
       </c>
       <c r="C92" s="9" t="n">
-        <v>0.9588</v>
+        <v>1.2543</v>
       </c>
       <c r="D92" s="10" t="n">
-        <v>426.97</v>
+        <v>189.01</v>
       </c>
       <c r="E92" s="10" t="n">
-        <v>450.03</v>
+        <v>232.73</v>
       </c>
       <c r="F92" s="10" t="n">
-        <v>40.65</v>
+        <v>-4.35</v>
       </c>
       <c r="G92" s="11" t="inlineStr">
         <is>
@@ -4780,12 +4780,12 @@
       </c>
       <c r="I92" s="11" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>中证银行</t>
         </is>
       </c>
       <c r="J92" s="11" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>146</t>
         </is>
       </c>
       <c r="K92" s="11" t="inlineStr">
@@ -4810,10 +4810,10 @@
         <v>227.52</v>
       </c>
       <c r="E93" s="10" t="n">
-        <v>235.41</v>
+        <v>230.41</v>
       </c>
       <c r="F93" s="10" t="n">
-        <v>11.9</v>
+        <v>6.89</v>
       </c>
       <c r="G93" s="11" t="inlineStr">
         <is>
@@ -4844,23 +4844,23 @@
     <row r="94">
       <c r="A94" s="7" t="inlineStr">
         <is>
-          <t>天弘中证银行指数A</t>
+          <t>华夏上证50AH优选指数</t>
         </is>
       </c>
       <c r="B94" s="8" t="n">
-        <v>1594</v>
+        <v>501050</v>
       </c>
       <c r="C94" s="9" t="n">
-        <v>1.2523</v>
+        <v>1.284</v>
       </c>
       <c r="D94" s="10" t="n">
-        <v>158.93</v>
+        <v>142.1</v>
       </c>
       <c r="E94" s="10" t="n">
-        <v>201.24</v>
+        <v>191.27</v>
       </c>
       <c r="F94" s="10" t="n">
-        <v>2.21</v>
+        <v>8.81</v>
       </c>
       <c r="G94" s="11" t="inlineStr">
         <is>
@@ -4869,17 +4869,17 @@
       </c>
       <c r="H94" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I94" s="11" t="inlineStr">
         <is>
-          <t>中证银行</t>
+          <t>50AH</t>
         </is>
       </c>
       <c r="J94" s="11" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>112</t>
         </is>
       </c>
       <c r="K94" s="11" t="inlineStr">
@@ -4891,23 +4891,23 @@
     <row r="95">
       <c r="A95" s="7" t="inlineStr">
         <is>
-          <t>华夏上证50AH优选指数</t>
+          <t>天弘中证医药100A</t>
         </is>
       </c>
       <c r="B95" s="8" t="n">
-        <v>501050</v>
+        <v>1550</v>
       </c>
       <c r="C95" s="9" t="n">
-        <v>1.284</v>
+        <v>0.6708</v>
       </c>
       <c r="D95" s="10" t="n">
-        <v>142.1</v>
+        <v>212.74</v>
       </c>
       <c r="E95" s="10" t="n">
-        <v>198.37</v>
+        <v>182.42</v>
       </c>
       <c r="F95" s="10" t="n">
-        <v>15.92</v>
+        <v>39.72</v>
       </c>
       <c r="G95" s="11" t="inlineStr">
         <is>
@@ -4916,17 +4916,17 @@
       </c>
       <c r="H95" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I95" s="11" t="inlineStr">
         <is>
-          <t>50AH</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J95" s="11" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K95" s="11" t="inlineStr">
@@ -4938,23 +4938,23 @@
     <row r="96">
       <c r="A96" s="7" t="inlineStr">
         <is>
-          <t>天弘中证医药100A</t>
+          <t>申万菱信沪深300价值指数</t>
         </is>
       </c>
       <c r="B96" s="8" t="n">
-        <v>1550</v>
+        <v>310398</v>
       </c>
       <c r="C96" s="9" t="n">
-        <v>0.6708</v>
+        <v>1.4372</v>
       </c>
       <c r="D96" s="10" t="n">
-        <v>212.74</v>
+        <v>25.8</v>
       </c>
       <c r="E96" s="10" t="n">
-        <v>175.06</v>
+        <v>35.9</v>
       </c>
       <c r="F96" s="10" t="n">
-        <v>32.36</v>
+        <v>-1.18</v>
       </c>
       <c r="G96" s="11" t="inlineStr">
         <is>
@@ -4963,17 +4963,17 @@
       </c>
       <c r="H96" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I96" s="11" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="J96" s="11" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K96" s="11" t="inlineStr">
@@ -4985,42 +4985,42 @@
     <row r="97">
       <c r="A97" s="7" t="inlineStr">
         <is>
-          <t>申万菱信沪深300价值指数</t>
+          <t>大成景安短融债券E</t>
         </is>
       </c>
       <c r="B97" s="8" t="n">
-        <v>310398</v>
+        <v>2086</v>
       </c>
       <c r="C97" s="9" t="n">
-        <v>1.4372</v>
+        <v>1.2257</v>
       </c>
       <c r="D97" s="10" t="n">
-        <v>25.8</v>
+        <v>0</v>
       </c>
       <c r="E97" s="10" t="n">
-        <v>36.9</v>
+        <v>0</v>
       </c>
       <c r="F97" s="10" t="n">
-        <v>-0.18</v>
+        <v>0</v>
       </c>
       <c r="G97" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>现金</t>
         </is>
       </c>
       <c r="H97" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>低风险理财</t>
         </is>
       </c>
       <c r="I97" s="11" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>货币基金</t>
         </is>
       </c>
       <c r="J97" s="11" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>999</t>
         </is>
       </c>
       <c r="K97" s="11" t="inlineStr">
@@ -5030,72 +5030,72 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="7" t="inlineStr">
-        <is>
-          <t>大成景安短融债券E</t>
-        </is>
-      </c>
-      <c r="B98" s="8" t="n">
-        <v>2086</v>
-      </c>
-      <c r="C98" s="9" t="n">
-        <v>1.2257</v>
-      </c>
-      <c r="D98" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E98" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F98" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G98" s="11" t="inlineStr">
-        <is>
-          <t>现金</t>
-        </is>
-      </c>
-      <c r="H98" s="11" t="inlineStr">
-        <is>
-          <t>低风险理财</t>
-        </is>
-      </c>
-      <c r="I98" s="11" t="inlineStr">
-        <is>
-          <t>货币基金</t>
-        </is>
-      </c>
-      <c r="J98" s="11" t="inlineStr">
-        <is>
-          <t>999</t>
-        </is>
-      </c>
-      <c r="K98" s="11" t="inlineStr">
-        <is>
-          <t>螺丝钉母</t>
+      <c r="A98" s="27" t="inlineStr">
+        <is>
+          <t>交银稳鑫短债债券A</t>
+        </is>
+      </c>
+      <c r="B98" s="28" t="n">
+        <v>6793</v>
+      </c>
+      <c r="C98" s="29" t="n">
+        <v>1.0286</v>
+      </c>
+      <c r="D98" s="30" t="n">
+        <v>78202.03</v>
+      </c>
+      <c r="E98" s="30" t="n">
+        <v>80946.92</v>
+      </c>
+      <c r="F98" s="30" t="n">
+        <v>508.31</v>
+      </c>
+      <c r="G98" s="31" t="inlineStr">
+        <is>
+          <t>债券</t>
+        </is>
+      </c>
+      <c r="H98" s="31" t="inlineStr">
+        <is>
+          <t>国内债券</t>
+        </is>
+      </c>
+      <c r="I98" s="31" t="inlineStr">
+        <is>
+          <t>可转债</t>
+        </is>
+      </c>
+      <c r="J98" s="31" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="K98" s="31" t="inlineStr">
+        <is>
+          <t>稳稳的幸福父</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="27" t="inlineStr">
         <is>
-          <t>交银稳鑫短债债券A</t>
+          <t>交银信用添利债券(LOF)</t>
         </is>
       </c>
       <c r="B99" s="28" t="n">
-        <v>6793</v>
+        <v>164902</v>
       </c>
       <c r="C99" s="29" t="n">
-        <v>1.0286</v>
+        <v>1.1469</v>
       </c>
       <c r="D99" s="30" t="n">
-        <v>78202.03</v>
+        <v>132767.68</v>
       </c>
       <c r="E99" s="30" t="n">
-        <v>80892.17999999999</v>
+        <v>152682.83</v>
       </c>
       <c r="F99" s="30" t="n">
-        <v>453.57</v>
+        <v>411.58</v>
       </c>
       <c r="G99" s="31" t="inlineStr">
         <is>
@@ -5126,42 +5126,42 @@
     <row r="100">
       <c r="A100" s="27" t="inlineStr">
         <is>
-          <t>交银信用添利债券(LOF)</t>
+          <t>交银主题优选</t>
         </is>
       </c>
       <c r="B100" s="28" t="n">
-        <v>164902</v>
+        <v>519700</v>
       </c>
       <c r="C100" s="29" t="n">
-        <v>1.1469</v>
+        <v>1.4657</v>
       </c>
       <c r="D100" s="30" t="n">
-        <v>132767.68</v>
+        <v>11598.58</v>
       </c>
       <c r="E100" s="30" t="n">
-        <v>152417.3</v>
+        <v>19381.23</v>
       </c>
       <c r="F100" s="30" t="n">
-        <v>146.04</v>
+        <v>2381.19</v>
       </c>
       <c r="G100" s="31" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>混合型</t>
         </is>
       </c>
       <c r="H100" s="31" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>股债混合</t>
         </is>
       </c>
       <c r="I100" s="31" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>偏股</t>
         </is>
       </c>
       <c r="J100" s="31" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>411</t>
         </is>
       </c>
       <c r="K100" s="31" t="inlineStr">
@@ -5173,42 +5173,42 @@
     <row r="101">
       <c r="A101" s="27" t="inlineStr">
         <is>
-          <t>交银主题优选</t>
+          <t>交银纯债A/B</t>
         </is>
       </c>
       <c r="B101" s="28" t="n">
-        <v>519700</v>
+        <v>519718</v>
       </c>
       <c r="C101" s="29" t="n">
-        <v>1.4657</v>
+        <v>1.0644</v>
       </c>
       <c r="D101" s="30" t="n">
-        <v>11598.58</v>
+        <v>144612.8</v>
       </c>
       <c r="E101" s="30" t="n">
-        <v>19543.61</v>
+        <v>155458.76</v>
       </c>
       <c r="F101" s="30" t="n">
-        <v>2543.57</v>
+        <v>1532.9</v>
       </c>
       <c r="G101" s="31" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H101" s="31" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I101" s="31" t="inlineStr">
         <is>
-          <t>偏股</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J101" s="31" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K101" s="31" t="inlineStr">
@@ -5220,23 +5220,23 @@
     <row r="102">
       <c r="A102" s="27" t="inlineStr">
         <is>
-          <t>交银纯债A/B</t>
+          <t>交银双轮动A/B</t>
         </is>
       </c>
       <c r="B102" s="28" t="n">
-        <v>519718</v>
+        <v>519723</v>
       </c>
       <c r="C102" s="29" t="n">
-        <v>1.0763</v>
+        <v>1.0674</v>
       </c>
       <c r="D102" s="30" t="n">
-        <v>143011.92</v>
+        <v>134080.44</v>
       </c>
       <c r="E102" s="30" t="n">
-        <v>155024.92</v>
+        <v>144002.39</v>
       </c>
       <c r="F102" s="30" t="n">
-        <v>1101.19</v>
+        <v>884.9299999999999</v>
       </c>
       <c r="G102" s="31" t="inlineStr">
         <is>
@@ -5267,42 +5267,42 @@
     <row r="103">
       <c r="A103" s="27" t="inlineStr">
         <is>
-          <t>交银双轮动A/B</t>
+          <t>交银周期回报灵活配置混合A</t>
         </is>
       </c>
       <c r="B103" s="28" t="n">
-        <v>519723</v>
+        <v>519738</v>
       </c>
       <c r="C103" s="29" t="n">
-        <v>1.0784</v>
+        <v>1.1791</v>
       </c>
       <c r="D103" s="30" t="n">
-        <v>132719.84</v>
+        <v>68092.81</v>
       </c>
       <c r="E103" s="30" t="n">
-        <v>143735.59</v>
+        <v>80689.98</v>
       </c>
       <c r="F103" s="30" t="n">
-        <v>610.51</v>
+        <v>401.75</v>
       </c>
       <c r="G103" s="31" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>混合型</t>
         </is>
       </c>
       <c r="H103" s="31" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>股债混合</t>
         </is>
       </c>
       <c r="I103" s="31" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>偏债</t>
         </is>
       </c>
       <c r="J103" s="31" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>411</t>
         </is>
       </c>
       <c r="K103" s="31" t="inlineStr">
@@ -5314,23 +5314,23 @@
     <row r="104">
       <c r="A104" s="27" t="inlineStr">
         <is>
-          <t>交银周期回报灵活配置混合A</t>
+          <t>交银新回报灵活配置混合A</t>
         </is>
       </c>
       <c r="B104" s="28" t="n">
-        <v>519738</v>
+        <v>519752</v>
       </c>
       <c r="C104" s="29" t="n">
-        <v>1.211</v>
+        <v>1.2439</v>
       </c>
       <c r="D104" s="30" t="n">
-        <v>66296.46000000001</v>
+        <v>59685.02</v>
       </c>
       <c r="E104" s="30" t="n">
-        <v>80682.78999999999</v>
+        <v>75441.87</v>
       </c>
       <c r="F104" s="30" t="n">
-        <v>397.78</v>
+        <v>1199.67</v>
       </c>
       <c r="G104" s="31" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="J104" s="31" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>412</t>
         </is>
       </c>
       <c r="K104" s="31" t="inlineStr">
@@ -5361,23 +5361,23 @@
     <row r="105">
       <c r="A105" s="27" t="inlineStr">
         <is>
-          <t>交银新回报灵活配置混合A</t>
+          <t>交银多策略回报灵活配置混合A</t>
         </is>
       </c>
       <c r="B105" s="28" t="n">
-        <v>519752</v>
+        <v>519755</v>
       </c>
       <c r="C105" s="29" t="n">
-        <v>1.2439</v>
+        <v>1.2894</v>
       </c>
       <c r="D105" s="30" t="n">
-        <v>59685.02</v>
+        <v>76964.17</v>
       </c>
       <c r="E105" s="30" t="n">
-        <v>75382.17999999999</v>
+        <v>101361.81</v>
       </c>
       <c r="F105" s="30" t="n">
-        <v>1139.98</v>
+        <v>2124.21</v>
       </c>
       <c r="G105" s="31" t="inlineStr">
         <is>
@@ -5406,72 +5406,72 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="27" t="inlineStr">
-        <is>
-          <t>交银多策略回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="B106" s="28" t="n">
-        <v>519755</v>
-      </c>
-      <c r="C106" s="29" t="n">
-        <v>1.2894</v>
-      </c>
-      <c r="D106" s="30" t="n">
-        <v>76964.17</v>
-      </c>
-      <c r="E106" s="30" t="n">
-        <v>101361.81</v>
-      </c>
-      <c r="F106" s="30" t="n">
-        <v>2124.21</v>
-      </c>
-      <c r="G106" s="31" t="inlineStr">
-        <is>
-          <t>混合型</t>
-        </is>
-      </c>
-      <c r="H106" s="31" t="inlineStr">
-        <is>
-          <t>股债混合</t>
-        </is>
-      </c>
-      <c r="I106" s="31" t="inlineStr">
-        <is>
-          <t>偏债</t>
-        </is>
-      </c>
-      <c r="J106" s="31" t="inlineStr">
-        <is>
-          <t>412</t>
-        </is>
-      </c>
-      <c r="K106" s="31" t="inlineStr">
-        <is>
-          <t>稳稳的幸福父</t>
+      <c r="A106" s="32" t="inlineStr">
+        <is>
+          <t>广发中证500ETF联接A</t>
+        </is>
+      </c>
+      <c r="B106" s="33" t="n">
+        <v>162711</v>
+      </c>
+      <c r="C106" s="34" t="n">
+        <v>1.0519</v>
+      </c>
+      <c r="D106" s="35" t="n">
+        <v>9697.57</v>
+      </c>
+      <c r="E106" s="35" t="n">
+        <v>11749.58</v>
+      </c>
+      <c r="F106" s="35" t="n">
+        <v>1548.7</v>
+      </c>
+      <c r="G106" s="36" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H106" s="36" t="inlineStr">
+        <is>
+          <t>中小盘股</t>
+        </is>
+      </c>
+      <c r="I106" s="36" t="inlineStr">
+        <is>
+          <t>中证500</t>
+        </is>
+      </c>
+      <c r="J106" s="36" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="K106" s="36" t="inlineStr">
+        <is>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="32" t="inlineStr">
         <is>
-          <t>广发中证500ETF联接A</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="B107" s="33" t="n">
-        <v>162711</v>
+        <v>100032</v>
       </c>
       <c r="C107" s="34" t="n">
-        <v>1.0519</v>
+        <v>1.0142</v>
       </c>
       <c r="D107" s="35" t="n">
-        <v>9697.57</v>
+        <v>8677.6</v>
       </c>
       <c r="E107" s="35" t="n">
-        <v>11716.6</v>
+        <v>10074.69</v>
       </c>
       <c r="F107" s="35" t="n">
-        <v>1515.73</v>
+        <v>1273.87</v>
       </c>
       <c r="G107" s="36" t="inlineStr">
         <is>
@@ -5480,17 +5480,17 @@
       </c>
       <c r="H107" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I107" s="36" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J107" s="36" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K107" s="36" t="inlineStr">
@@ -5502,23 +5502,23 @@
     <row r="108">
       <c r="A108" s="32" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B108" s="33" t="n">
-        <v>100032</v>
+        <v>968</v>
       </c>
       <c r="C108" s="34" t="n">
-        <v>1.0142</v>
+        <v>0.853</v>
       </c>
       <c r="D108" s="35" t="n">
-        <v>8677.6</v>
+        <v>6096.21</v>
       </c>
       <c r="E108" s="35" t="n">
-        <v>10265.6</v>
+        <v>6315.06</v>
       </c>
       <c r="F108" s="35" t="n">
-        <v>1464.78</v>
+        <v>1115</v>
       </c>
       <c r="G108" s="36" t="inlineStr">
         <is>
@@ -5527,17 +5527,17 @@
       </c>
       <c r="H108" s="36" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I108" s="36" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J108" s="36" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K108" s="36" t="inlineStr">
@@ -5549,23 +5549,23 @@
     <row r="109">
       <c r="A109" s="32" t="inlineStr">
         <is>
-          <t>广发养老指数A</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B109" s="33" t="n">
-        <v>968</v>
+        <v>1180</v>
       </c>
       <c r="C109" s="34" t="n">
-        <v>0.853</v>
+        <v>0.7111</v>
       </c>
       <c r="D109" s="35" t="n">
-        <v>6096.21</v>
+        <v>6750.28</v>
       </c>
       <c r="E109" s="35" t="n">
-        <v>6425.41</v>
+        <v>6178.53</v>
       </c>
       <c r="F109" s="35" t="n">
-        <v>1225.34</v>
+        <v>1378.41</v>
       </c>
       <c r="G109" s="36" t="inlineStr">
         <is>
@@ -5579,12 +5579,12 @@
       </c>
       <c r="I109" s="36" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J109" s="36" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K109" s="36" t="inlineStr">
@@ -5596,23 +5596,23 @@
     <row r="110">
       <c r="A110" s="32" t="inlineStr">
         <is>
-          <t>广发医药卫生联接A</t>
+          <t>富国沪深300指数增强</t>
         </is>
       </c>
       <c r="B110" s="33" t="n">
-        <v>1180</v>
+        <v>100038</v>
       </c>
       <c r="C110" s="34" t="n">
-        <v>0.7111</v>
+        <v>1.3043</v>
       </c>
       <c r="D110" s="35" t="n">
-        <v>6750.28</v>
+        <v>2760.12</v>
       </c>
       <c r="E110" s="35" t="n">
-        <v>6015.17</v>
+        <v>4747.41</v>
       </c>
       <c r="F110" s="35" t="n">
-        <v>1215.05</v>
+        <v>1147.38</v>
       </c>
       <c r="G110" s="36" t="inlineStr">
         <is>
@@ -5621,17 +5621,17 @@
       </c>
       <c r="H110" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I110" s="36" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="J110" s="36" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K110" s="36" t="inlineStr">
@@ -5643,23 +5643,23 @@
     <row r="111">
       <c r="A111" s="32" t="inlineStr">
         <is>
-          <t>富国沪深300指数增强</t>
+          <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
       <c r="B111" s="33" t="n">
-        <v>100038</v>
+        <v>4752</v>
       </c>
       <c r="C111" s="34" t="n">
-        <v>1.3043</v>
+        <v>0.7235</v>
       </c>
       <c r="D111" s="35" t="n">
-        <v>2760.12</v>
+        <v>4423.48</v>
       </c>
       <c r="E111" s="35" t="n">
-        <v>4810.89</v>
+        <v>3960.78</v>
       </c>
       <c r="F111" s="35" t="n">
-        <v>1210.86</v>
+        <v>760.4</v>
       </c>
       <c r="G111" s="36" t="inlineStr">
         <is>
@@ -5668,17 +5668,17 @@
       </c>
       <c r="H111" s="36" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I111" s="36" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="J111" s="36" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>144</t>
         </is>
       </c>
       <c r="K111" s="36" t="inlineStr">
@@ -5690,23 +5690,23 @@
     <row r="112">
       <c r="A112" s="32" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B112" s="33" t="n">
-        <v>4752</v>
+        <v>1064</v>
       </c>
       <c r="C112" s="34" t="n">
-        <v>0.7235</v>
+        <v>0.5379</v>
       </c>
       <c r="D112" s="35" t="n">
-        <v>4423.48</v>
+        <v>5949.77</v>
       </c>
       <c r="E112" s="35" t="n">
-        <v>4048.37</v>
+        <v>3788.22</v>
       </c>
       <c r="F112" s="35" t="n">
-        <v>847.98</v>
+        <v>587.84</v>
       </c>
       <c r="G112" s="36" t="inlineStr">
         <is>
@@ -5720,12 +5720,12 @@
       </c>
       <c r="I112" s="36" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="J112" s="36" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K112" s="36" t="inlineStr">
@@ -5737,42 +5737,42 @@
     <row r="113">
       <c r="A113" s="32" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>易方达安心回报债券A</t>
         </is>
       </c>
       <c r="B113" s="33" t="n">
-        <v>1064</v>
+        <v>110027</v>
       </c>
       <c r="C113" s="34" t="n">
-        <v>0.5379</v>
+        <v>1.6102</v>
       </c>
       <c r="D113" s="35" t="n">
-        <v>5949.77</v>
+        <v>1981.84</v>
       </c>
       <c r="E113" s="35" t="n">
-        <v>3752.52</v>
+        <v>3555.42</v>
       </c>
       <c r="F113" s="35" t="n">
-        <v>552.14</v>
+        <v>364.26</v>
       </c>
       <c r="G113" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H113" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I113" s="36" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J113" s="36" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K113" s="36" t="inlineStr">
@@ -5784,42 +5784,42 @@
     <row r="114">
       <c r="A114" s="32" t="inlineStr">
         <is>
-          <t>易方达安心回报债券A</t>
+          <t>富国中证500指数(LOF)</t>
         </is>
       </c>
       <c r="B114" s="33" t="n">
-        <v>110027</v>
+        <v>161017</v>
       </c>
       <c r="C114" s="34" t="n">
-        <v>1.6102</v>
+        <v>1.325</v>
       </c>
       <c r="D114" s="35" t="n">
-        <v>1981.84</v>
+        <v>2046.97</v>
       </c>
       <c r="E114" s="35" t="n">
-        <v>3541.55</v>
+        <v>3717.3</v>
       </c>
       <c r="F114" s="35" t="n">
-        <v>350.39</v>
+        <v>1005.06</v>
       </c>
       <c r="G114" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H114" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I114" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J114" s="36" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K114" s="36" t="inlineStr">
@@ -5831,42 +5831,42 @@
     <row r="115">
       <c r="A115" s="32" t="inlineStr">
         <is>
-          <t>富国中证500指数(LOF)</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B115" s="33" t="n">
-        <v>161017</v>
+        <v>614</v>
       </c>
       <c r="C115" s="34" t="n">
-        <v>1.325</v>
+        <v>1.0612</v>
       </c>
       <c r="D115" s="35" t="n">
-        <v>2046.97</v>
+        <v>1884.74</v>
       </c>
       <c r="E115" s="35" t="n">
-        <v>3680.45</v>
+        <v>2278.65</v>
       </c>
       <c r="F115" s="35" t="n">
-        <v>968.22</v>
+        <v>278.56</v>
       </c>
       <c r="G115" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="H115" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>德国</t>
         </is>
       </c>
       <c r="I115" s="36" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>德国30</t>
         </is>
       </c>
       <c r="J115" s="36" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>321</t>
         </is>
       </c>
       <c r="K115" s="36" t="inlineStr">
@@ -5878,42 +5878,42 @@
     <row r="116">
       <c r="A116" s="32" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>易方达创业板ETF联接A</t>
         </is>
       </c>
       <c r="B116" s="33" t="n">
-        <v>614</v>
+        <v>110026</v>
       </c>
       <c r="C116" s="34" t="n">
-        <v>1.0612</v>
+        <v>1.319</v>
       </c>
       <c r="D116" s="35" t="n">
-        <v>1884.74</v>
+        <v>1213.09</v>
       </c>
       <c r="E116" s="35" t="n">
-        <v>2293.73</v>
+        <v>2477.74</v>
       </c>
       <c r="F116" s="35" t="n">
-        <v>293.64</v>
+        <v>877.67</v>
       </c>
       <c r="G116" s="36" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H116" s="36" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I116" s="36" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>创业板</t>
         </is>
       </c>
       <c r="J116" s="36" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>124</t>
         </is>
       </c>
       <c r="K116" s="36" t="inlineStr">
@@ -5925,42 +5925,42 @@
     <row r="117">
       <c r="A117" s="32" t="inlineStr">
         <is>
-          <t>易方达创业板ETF联接A</t>
+          <t>兴全可转债混合</t>
         </is>
       </c>
       <c r="B117" s="33" t="n">
-        <v>110026</v>
+        <v>340001</v>
       </c>
       <c r="C117" s="34" t="n">
-        <v>1.319</v>
+        <v>0.9816</v>
       </c>
       <c r="D117" s="35" t="n">
-        <v>1213.09</v>
+        <v>1630.08</v>
       </c>
       <c r="E117" s="35" t="n">
-        <v>2409.44</v>
+        <v>2020.48</v>
       </c>
       <c r="F117" s="35" t="n">
-        <v>809.37</v>
+        <v>420.4</v>
       </c>
       <c r="G117" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H117" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I117" s="36" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J117" s="36" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K117" s="36" t="inlineStr">
@@ -5972,42 +5972,42 @@
     <row r="118">
       <c r="A118" s="32" t="inlineStr">
         <is>
-          <t>兴全可转债混合</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B118" s="33" t="n">
-        <v>340001</v>
+        <v>164906</v>
       </c>
       <c r="C118" s="34" t="n">
-        <v>0.9816</v>
+        <v>1.137</v>
       </c>
       <c r="D118" s="35" t="n">
-        <v>1630.08</v>
+        <v>1407.29</v>
       </c>
       <c r="E118" s="35" t="n">
-        <v>2021.3</v>
+        <v>2063.09</v>
       </c>
       <c r="F118" s="35" t="n">
-        <v>421.21</v>
+        <v>463</v>
       </c>
       <c r="G118" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H118" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I118" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J118" s="36" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>221</t>
         </is>
       </c>
       <c r="K118" s="36" t="inlineStr">
@@ -6019,42 +6019,42 @@
     <row r="119">
       <c r="A119" s="32" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>华夏上证50ETF联接A</t>
         </is>
       </c>
       <c r="B119" s="33" t="n">
-        <v>164906</v>
+        <v>1051</v>
       </c>
       <c r="C119" s="34" t="n">
-        <v>1.137</v>
+        <v>0.8966</v>
       </c>
       <c r="D119" s="35" t="n">
-        <v>1407.29</v>
+        <v>1338.46</v>
       </c>
       <c r="E119" s="35" t="n">
-        <v>2053.24</v>
+        <v>1378.61</v>
       </c>
       <c r="F119" s="35" t="n">
-        <v>453.15</v>
+        <v>178.55</v>
       </c>
       <c r="G119" s="36" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H119" s="36" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I119" s="36" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>上证50</t>
         </is>
       </c>
       <c r="J119" s="36" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K119" s="36" t="inlineStr">
@@ -6066,42 +6066,42 @@
     <row r="120">
       <c r="A120" s="32" t="inlineStr">
         <is>
-          <t>华夏上证50ETF联接A</t>
+          <t>华宝标普油气上游股票</t>
         </is>
       </c>
       <c r="B120" s="33" t="n">
-        <v>1051</v>
+        <v>162411</v>
       </c>
       <c r="C120" s="34" t="n">
-        <v>0.8966</v>
+        <v>0.4776</v>
       </c>
       <c r="D120" s="35" t="n">
-        <v>1338.46</v>
+        <v>3350.7</v>
       </c>
       <c r="E120" s="35" t="n">
-        <v>1409.4</v>
+        <v>1295.38</v>
       </c>
       <c r="F120" s="35" t="n">
-        <v>209.34</v>
+        <v>-304.91</v>
       </c>
       <c r="G120" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H120" s="36" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I120" s="36" t="inlineStr">
         <is>
-          <t>上证50</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="J120" s="36" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>613</t>
         </is>
       </c>
       <c r="K120" s="36" t="inlineStr">
@@ -6113,42 +6113,42 @@
     <row r="121">
       <c r="A121" s="32" t="inlineStr">
         <is>
-          <t>华宝标普油气上游股票</t>
+          <t>华宝中证1000指数分级</t>
         </is>
       </c>
       <c r="B121" s="33" t="n">
-        <v>162411</v>
+        <v>162413</v>
       </c>
       <c r="C121" s="34" t="n">
-        <v>0.4776</v>
+        <v>0.776</v>
       </c>
       <c r="D121" s="35" t="n">
-        <v>3350.7</v>
+        <v>1546.42</v>
       </c>
       <c r="E121" s="35" t="n">
-        <v>1333.58</v>
+        <v>1346.93</v>
       </c>
       <c r="F121" s="35" t="n">
-        <v>-266.72</v>
+        <v>146.91</v>
       </c>
       <c r="G121" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H121" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I121" s="36" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>中证1000</t>
         </is>
       </c>
       <c r="J121" s="36" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>123</t>
         </is>
       </c>
       <c r="K121" s="36" t="inlineStr">
@@ -6160,23 +6160,23 @@
     <row r="122">
       <c r="A122" s="32" t="inlineStr">
         <is>
-          <t>华宝中证1000指数分级</t>
+          <t>广发中证全指金融地产联接A</t>
         </is>
       </c>
       <c r="B122" s="33" t="n">
-        <v>162413</v>
+        <v>1469</v>
       </c>
       <c r="C122" s="34" t="n">
-        <v>0.776</v>
+        <v>0.8885999999999999</v>
       </c>
       <c r="D122" s="35" t="n">
-        <v>1546.42</v>
+        <v>900.35</v>
       </c>
       <c r="E122" s="35" t="n">
-        <v>1347.09</v>
+        <v>1021.36</v>
       </c>
       <c r="F122" s="35" t="n">
-        <v>147.06</v>
+        <v>221.31</v>
       </c>
       <c r="G122" s="36" t="inlineStr">
         <is>
@@ -6185,17 +6185,17 @@
       </c>
       <c r="H122" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I122" s="36" t="inlineStr">
         <is>
-          <t>中证1000</t>
+          <t>金融地产</t>
         </is>
       </c>
       <c r="J122" s="36" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>147</t>
         </is>
       </c>
       <c r="K122" s="36" t="inlineStr">
@@ -6207,42 +6207,42 @@
     <row r="123">
       <c r="A123" s="32" t="inlineStr">
         <is>
-          <t>广发中证全指金融地产联接A</t>
+          <t>华安黄金易ETF联接A</t>
         </is>
       </c>
       <c r="B123" s="33" t="n">
-        <v>1469</v>
+        <v>216</v>
       </c>
       <c r="C123" s="34" t="n">
-        <v>0.8885999999999999</v>
+        <v>1.0903</v>
       </c>
       <c r="D123" s="35" t="n">
-        <v>900.35</v>
+        <v>733.79</v>
       </c>
       <c r="E123" s="35" t="n">
-        <v>1046.75</v>
+        <v>928.17</v>
       </c>
       <c r="F123" s="35" t="n">
-        <v>246.7</v>
+        <v>128.12</v>
       </c>
       <c r="G123" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H123" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I123" s="36" t="inlineStr">
         <is>
-          <t>金融地产</t>
+          <t>黄金</t>
         </is>
       </c>
       <c r="J123" s="36" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>611</t>
         </is>
       </c>
       <c r="K123" s="36" t="inlineStr">
@@ -6254,42 +6254,42 @@
     <row r="124">
       <c r="A124" s="32" t="inlineStr">
         <is>
-          <t>华安黄金易ETF联接A</t>
+          <t>易方达证券公司分级</t>
         </is>
       </c>
       <c r="B124" s="33" t="n">
-        <v>216</v>
+        <v>502010</v>
       </c>
       <c r="C124" s="34" t="n">
-        <v>1.0903</v>
+        <v>0.8063</v>
       </c>
       <c r="D124" s="35" t="n">
-        <v>733.79</v>
+        <v>496.13</v>
       </c>
       <c r="E124" s="35" t="n">
-        <v>920.3200000000001</v>
+        <v>549.8099999999999</v>
       </c>
       <c r="F124" s="35" t="n">
-        <v>120.27</v>
+        <v>149.78</v>
       </c>
       <c r="G124" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H124" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I124" s="36" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>证券公司</t>
         </is>
       </c>
       <c r="J124" s="36" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>145</t>
         </is>
       </c>
       <c r="K124" s="36" t="inlineStr">
@@ -6301,42 +6301,42 @@
     <row r="125">
       <c r="A125" s="32" t="inlineStr">
         <is>
-          <t>易方达证券公司分级</t>
+          <t>长信可转债债券A</t>
         </is>
       </c>
       <c r="B125" s="33" t="n">
-        <v>502010</v>
+        <v>519977</v>
       </c>
       <c r="C125" s="34" t="n">
-        <v>0.8063</v>
+        <v>1.2011</v>
       </c>
       <c r="D125" s="35" t="n">
-        <v>496.13</v>
+        <v>333.04</v>
       </c>
       <c r="E125" s="35" t="n">
-        <v>556.21</v>
+        <v>490.47</v>
       </c>
       <c r="F125" s="35" t="n">
-        <v>156.18</v>
+        <v>90.45</v>
       </c>
       <c r="G125" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H125" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I125" s="36" t="inlineStr">
         <is>
-          <t>证券公司</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J125" s="36" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K125" s="36" t="inlineStr">
@@ -6348,42 +6348,42 @@
     <row r="126">
       <c r="A126" s="32" t="inlineStr">
         <is>
-          <t>长信可转债债券A</t>
+          <t>华夏沪深300ETF联接A</t>
         </is>
       </c>
       <c r="B126" s="33" t="n">
-        <v>519977</v>
+        <v>51</v>
       </c>
       <c r="C126" s="34" t="n">
-        <v>1.2011</v>
+        <v>1.2285</v>
       </c>
       <c r="D126" s="35" t="n">
-        <v>333.04</v>
+        <v>325.61</v>
       </c>
       <c r="E126" s="35" t="n">
-        <v>487.37</v>
+        <v>449.34</v>
       </c>
       <c r="F126" s="35" t="n">
-        <v>87.36</v>
+        <v>49.33</v>
       </c>
       <c r="G126" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H126" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I126" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="J126" s="36" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K126" s="36" t="inlineStr">
@@ -6395,42 +6395,42 @@
     <row r="127">
       <c r="A127" s="32" t="inlineStr">
         <is>
-          <t>华夏沪深300ETF联接A</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B127" s="33" t="n">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C127" s="34" t="n">
-        <v>1.2285</v>
+        <v>1.452</v>
       </c>
       <c r="D127" s="35" t="n">
-        <v>325.61</v>
+        <v>275.49</v>
       </c>
       <c r="E127" s="35" t="n">
-        <v>456.51</v>
+        <v>430.09</v>
       </c>
       <c r="F127" s="35" t="n">
-        <v>56.49</v>
+        <v>30.08</v>
       </c>
       <c r="G127" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H127" s="36" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I127" s="36" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="J127" s="36" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>211</t>
         </is>
       </c>
       <c r="K127" s="36" t="inlineStr">
@@ -6442,92 +6442,45 @@
     <row r="128">
       <c r="A128" s="32" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>建信中证500指数增强A</t>
         </is>
       </c>
       <c r="B128" s="33" t="n">
-        <v>71</v>
+        <v>478</v>
       </c>
       <c r="C128" s="34" t="n">
-        <v>1.452</v>
+        <v>1.9396</v>
       </c>
       <c r="D128" s="35" t="n">
-        <v>275.49</v>
+        <v>206.23</v>
       </c>
       <c r="E128" s="35" t="n">
-        <v>441.58</v>
+        <v>447.44</v>
       </c>
       <c r="F128" s="35" t="n">
-        <v>41.57</v>
+        <v>47.43</v>
       </c>
       <c r="G128" s="36" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H128" s="36" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I128" s="36" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J128" s="36" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K128" s="36" t="inlineStr">
-        <is>
-          <t>天天基金母</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="32" t="inlineStr">
-        <is>
-          <t>建信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="B129" s="33" t="n">
-        <v>478</v>
-      </c>
-      <c r="C129" s="34" t="n">
-        <v>1.9396</v>
-      </c>
-      <c r="D129" s="35" t="n">
-        <v>206.23</v>
-      </c>
-      <c r="E129" s="35" t="n">
-        <v>447.79</v>
-      </c>
-      <c r="F129" s="35" t="n">
-        <v>47.78</v>
-      </c>
-      <c r="G129" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H129" s="36" t="inlineStr">
-        <is>
-          <t>中小盘股</t>
-        </is>
-      </c>
-      <c r="I129" s="36" t="inlineStr">
-        <is>
-          <t>中证500</t>
-        </is>
-      </c>
-      <c r="J129" s="36" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="K129" s="36" t="inlineStr">
         <is>
           <t>天天基金母</t>
         </is>
